--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>US</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Bij start test is er geen data aanwezig</t>
   </si>
   <si>
-    <t>Regressietest #1 is uitgevoerd</t>
-  </si>
-  <si>
     <t>container/concepten-put-xml</t>
   </si>
   <si>
@@ -74,6 +71,28 @@
   </si>
   <si>
     <t>Foutmelding "De upload bevat reeds bestaande concepten"</t>
+  </si>
+  <si>
+    <t>Ingelogde gebruiker</t>
+  </si>
+  <si>
+    <t>ebadmin</t>
+  </si>
+  <si>
+    <t>Testbestand is geupload</t>
+  </si>
+  <si>
+    <t>Testbestand wordt nogmaals geupload</t>
+  </si>
+  <si>
+    <t>Testbestand 1 is geupload</t>
+  </si>
+  <si>
+    <t>Testbestand 2 wordt geupload</t>
+  </si>
+  <si>
+    <t>1. Omgevingsdocumenten/Testdata Omgevingsdocument X.xml
+2. Omgevingsdocumenten/Testdata Omgevingsdocument X.xml</t>
   </si>
 </sst>
 </file>
@@ -585,13 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G405"/>
+  <dimension ref="A1:H405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,13 +615,13 @@
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="15.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="14" customWidth="1"/>
-    <col min="6" max="7" width="35.7109375" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="5" width="35.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="14" customWidth="1"/>
+    <col min="7" max="8" width="35.7109375" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -616,15 +632,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -633,13 +650,16 @@
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -652,17 +672,20 @@
       <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H3" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -675,17 +698,20 @@
       <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>11</v>
+      <c r="E4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -693,22 +719,25 @@
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -716,67 +745,70 @@
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>14</v>
       </c>
@@ -2727,7 +2759,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G2"/>
+  <autoFilter ref="B2:H2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -46,9 +46,6 @@
     <t>Testbestand(en)</t>
   </si>
   <si>
-    <t>Omgevingsdocumenten/Testdata Omgevingsdocument X.xml</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
   </si>
   <si>
     <t>container/concepten-put-xml</t>
-  </si>
-  <si>
-    <t>De concepten "gebouw", "bouwwerk" en "brandveilig gebruiksactiviteit" zijn zichtbaar in de Catalogus</t>
-  </si>
-  <si>
-    <t>Het concept "gebouw" is gewijzigd (ander label)</t>
   </si>
   <si>
     <t>Foutmelding "De upload bevat concepten die nog niet bestaan"</t>
@@ -85,14 +76,26 @@
     <t>Testbestand wordt nogmaals geupload</t>
   </si>
   <si>
-    <t>Testbestand 1 is geupload</t>
+    <t>- De concepten "gebouw" en "bouwwerk" zijn zichtbaar in de Catalogus
+- Beiden concepten hebben een rdfs:label, een skos:prefLabel en een skos:definition
+- "Gebouw" is een specialisatie van "bouwwerk"</t>
   </si>
   <si>
-    <t>Testbestand 2 wordt geupload</t>
+    <t>Omgevingsdocumenten/Regressietest/Regressietest #1.xml</t>
   </si>
   <si>
-    <t>1. Omgevingsdocumenten/Testdata Omgevingsdocument X.xml
-2. Omgevingsdocumenten/Testdata Omgevingsdocument X.xml</t>
+    <t>- Het concept "gebouw" is gewijzigd (het heet nu "gebouwtje")
+- Het concept "bouwwerk" is ongewijzigd (geen nieuwe versie zichtbaar)</t>
+  </si>
+  <si>
+    <t>Testbestand Regressietest #1.xml is geupload</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Regressietest #1.xml
+Omgevingsdocumenten/Regressietest/Regressietest #3.xml</t>
+  </si>
+  <si>
+    <t>Testbestand Regressietest #3.xml wordt geupload</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -298,6 +301,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -607,7 +613,7 @@
   <dimension ref="A1:H405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +629,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -651,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>5</v>
@@ -659,7 +665,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -670,19 +676,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -696,22 +702,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -719,22 +725,22 @@
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -745,22 +751,22 @@
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>US</t>
   </si>
@@ -58,12 +58,6 @@
     <t>container/concepten-put-xml</t>
   </si>
   <si>
-    <t>Foutmelding "De upload bevat concepten die nog niet bestaan"</t>
-  </si>
-  <si>
-    <t>Foutmelding "De upload bevat reeds bestaande concepten"</t>
-  </si>
-  <si>
     <t>Ingelogde gebruiker</t>
   </si>
   <si>
@@ -76,16 +70,7 @@
     <t>Testbestand wordt nogmaals geupload</t>
   </si>
   <si>
-    <t>- De concepten "gebouw" en "bouwwerk" zijn zichtbaar in de Catalogus
-- Beiden concepten hebben een rdfs:label, een skos:prefLabel en een skos:definition
-- "Gebouw" is een specialisatie van "bouwwerk"</t>
-  </si>
-  <si>
     <t>Omgevingsdocumenten/Regressietest/Regressietest #1.xml</t>
-  </si>
-  <si>
-    <t>- Het concept "gebouw" is gewijzigd (het heet nu "gebouwtje")
-- Het concept "bouwwerk" is ongewijzigd (geen nieuwe versie zichtbaar)</t>
   </si>
   <si>
     <t>Testbestand Regressietest #1.xml is geupload</t>
@@ -96,6 +81,53 @@
   </si>
   <si>
     <t>Testbestand Regressietest #3.xml wordt geupload</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload bevat reeds bestaande concepten"</t>
+  </si>
+  <si>
+    <t>Container geeft als resultaat "Upload succesvol"</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload bevat concepten die nog niet bestaan"</t>
+  </si>
+  <si>
+    <t>GCO-382</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pagina /id/concept/Gebouw wordt bekeken</t>
+  </si>
+  <si>
+    <t>Pagina /id/concept/Bouwwerk wordt bekeken</t>
+  </si>
+  <si>
+    <t>GCO-391</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. het volgende te zien:
+- Tabelweergave met als header 'bouwwerk'
+- Grafische weergave (niet leeg)
+In de tabel staan de volgende rijen (header | waarde):
+- Naam | Bouwwerk
+- Definitie | (niet leeg)
+- Startdatum versie | (niet leeg)
+- Laatste activiteit | (link)</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabelweergave te zien met daarin o.a.:
+- Een rij met als header 'Definitie' en als waarde een stuk tekst die begint met een link met als url /id/concept/Bouwwerk en als label 'bouwwerk'
+- Een rij met als header 'Is specialisatie van' en als waarde een link met als url /id/concept/Bouwwerk en als label 'bouwwerk'</t>
+  </si>
+  <si>
+    <t>Eerst is testbestand #1 geupload, vervolgens is testbestand #3 geupload</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabelweergave te zien met als header 'gebouwtje' en o.a. de volgende rij:
+- Naam | Gebouwtje
+Tevens is er een tabel te zien met als kolomheaders 'Andere versies' en 'Actueel tot', met daarin één rij met een link en een niet-lege waarde.</t>
   </si>
 </sst>
 </file>
@@ -612,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>5</v>
@@ -665,7 +697,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -676,10 +708,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>11</v>
@@ -688,10 +720,10 @@
         <v>10</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -702,22 +734,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -728,22 +760,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -754,10 +786,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>11</v>
@@ -766,22 +798,85 @@
         <v>10</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>US</t>
   </si>
@@ -71,16 +71,10 @@
   </si>
   <si>
     <t>Omgevingsdocumenten/Regressietest/Regressietest #1.xml</t>
-  </si>
-  <si>
-    <t>Testbestand Regressietest #1.xml is geupload</t>
   </si>
   <si>
     <t>Omgevingsdocumenten/Regressietest/Regressietest #1.xml
 Omgevingsdocumenten/Regressietest/Regressietest #3.xml</t>
-  </si>
-  <si>
-    <t>Testbestand Regressietest #3.xml wordt geupload</t>
   </si>
   <si>
     <t>Container geeft als foutmelding "De upload bevat reeds bestaande concepten"</t>
@@ -128,6 +122,25 @@
     <t>Op de pagina is o.a. een tabelweergave te zien met als header 'gebouwtje' en o.a. de volgende rij:
 - Naam | Gebouwtje
 Tevens is er een tabel te zien met als kolomheaders 'Andere versies' en 'Actueel tot', met daarin één rij met een link en een niet-lege waarde.</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Regressietest #8.xml</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder term bevatten."</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Regressietest #1.xml
+Omgevingsdocumenten/Regressietest/Regressietest #8.xml</t>
+  </si>
+  <si>
+    <t>Testbestand #1 is geupload</t>
+  </si>
+  <si>
+    <t>Testbestand #3 wordt geupload</t>
+  </si>
+  <si>
+    <t>Testbestand #8 wordt geupload</t>
   </si>
 </sst>
 </file>
@@ -644,14 +657,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="15.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="12" customWidth="1"/>
     <col min="4" max="5" width="35.7109375" style="13" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="14" customWidth="1"/>
@@ -720,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -746,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -760,19 +771,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -798,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -806,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>6</v>
@@ -815,16 +826,16 @@
         <v>17</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -832,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>6</v>
@@ -841,16 +852,16 @@
         <v>17</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -858,35 +869,77 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>US</t>
   </si>
@@ -141,6 +141,74 @@
   </si>
   <si>
     <t>Testbestand #8 wordt geupload</t>
+  </si>
+  <si>
+    <t>GCO-4</t>
+  </si>
+  <si>
+    <t>container/ttlupdate</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Regressietest #10.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Regressietest #11.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Regressietest #12.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Regressietest #13.xml</t>
+  </si>
+  <si>
+    <t>Pagina /id/concept/GeneriekBeest wordt bekeken</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. het volgende te zien:
+- Tabelweergave met als header 'Generiek beest'
+- Grafische weergave (leeg)
+In de tabel staan de volgende rijen (header | waarde):
+- Naam | GeneriekBeest
+- Startdatum versie | (niet leeg)
+- Laatste activiteit | (link)
+- Notitie | Notitie
+- Uitleg | Uitleg
+- Definitie | Definitie
+- Toelichting | Toelichting
+- Domein | (link)
+- Synoniemen | (link)</t>
+  </si>
+  <si>
+    <t>Testbestand #10 is geupload</t>
+  </si>
+  <si>
+    <t>Testbestand #11 is geupload</t>
+  </si>
+  <si>
+    <t>Relaties</t>
+  </si>
+  <si>
+    <t>Testbestand #12 is geupload</t>
+  </si>
+  <si>
+    <t>Testbestand #13 is geupload</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>GCO-294</t>
+  </si>
+  <si>
+    <t>Toeleidingsbegrippen</t>
+  </si>
+  <si>
+    <t>Pagina /query/search?term=monster wordt bekeken</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabel te zien met als headers 'concept' en 'uitleg' en daaronder één rij met daarin:
+- in de linkerkolom een link naar /id/concept/GeneriekBeest met als label 'Generiek beest'
+- in de rechterkolom de tekst "Definitie"</t>
   </si>
 </sst>
 </file>
@@ -657,7 +725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -942,29 +1012,134 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>US</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Testbestand wordt geupload</t>
   </si>
   <si>
-    <t>Bij start test is er geen data aanwezig</t>
-  </si>
-  <si>
     <t>container/concepten-put-xml</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>ebadmin</t>
-  </si>
-  <si>
-    <t>Testbestand is geupload</t>
   </si>
   <si>
     <t>Testbestand wordt nogmaals geupload</t>
@@ -209,6 +203,48 @@
     <t>Op de pagina is o.a. een tabel te zien met als headers 'concept' en 'uitleg' en daaronder één rij met daarin:
 - in de linkerkolom een link naar /id/concept/GeneriekBeest met als label 'Generiek beest'
 - in de rechterkolom de tekst "Definitie"</t>
+  </si>
+  <si>
+    <t>Onderwerp</t>
+  </si>
+  <si>
+    <t>Testnaam</t>
+  </si>
+  <si>
+    <t>LOGISCHE TEST</t>
+  </si>
+  <si>
+    <t>Succesvolle upload</t>
+  </si>
+  <si>
+    <t>Validatie bestaand concept</t>
+  </si>
+  <si>
+    <t>API POST XML</t>
+  </si>
+  <si>
+    <t>API PUT XML</t>
+  </si>
+  <si>
+    <t>Datacontrole</t>
+  </si>
+  <si>
+    <t>Datacontrole attributen</t>
+  </si>
+  <si>
+    <t>Datacontrole relaties</t>
+  </si>
+  <si>
+    <t>Invoervalidatie</t>
+  </si>
+  <si>
+    <t>Upload Turtle</t>
+  </si>
+  <si>
+    <t>Datacontrole bron</t>
+  </si>
+  <si>
+    <t>Datacontrole toeleidingsbegrip</t>
   </si>
 </sst>
 </file>
@@ -369,27 +405,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -417,6 +438,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -723,2372 +762,2456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H405"/>
+  <dimension ref="A1:J405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="12" customWidth="1"/>
-    <col min="4" max="5" width="35.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="14" customWidth="1"/>
-    <col min="7" max="8" width="35.7109375" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.85546875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="35.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="7" customWidth="1"/>
+    <col min="6" max="7" width="35.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="9" customWidth="1"/>
+    <col min="9" max="10" width="35.7109375" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="I10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="14" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="G5" s="15" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="15" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="C12" s="12" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="D12" s="13" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="14" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="14" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>46</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="15" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="14" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>48</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="15" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="15" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="15" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="H16" s="15" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
-        <v>54</v>
-      </c>
-    </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
+      <c r="A57" s="8">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
+      <c r="A58" s="8">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
+      <c r="A59" s="8">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
+      <c r="A60" s="8">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
+      <c r="A61" s="8">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
+      <c r="A62" s="8">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
+      <c r="A63" s="8">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="A64" s="8">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+      <c r="A65" s="8">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
+      <c r="A66" s="8">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
+      <c r="A67" s="8">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
+      <c r="A68" s="8">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
+      <c r="A69" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
+      <c r="A70" s="8">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
+      <c r="A71" s="8">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
+      <c r="A72" s="8">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
+      <c r="A73" s="8">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15">
+      <c r="A74" s="8">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15">
+      <c r="A75" s="8">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15">
+      <c r="A76" s="8">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15">
+      <c r="A77" s="8">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15">
+      <c r="A78" s="8">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15">
+      <c r="A79" s="8">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15">
+      <c r="A80" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15">
+      <c r="A81" s="8">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15">
+      <c r="A82" s="8">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15">
+      <c r="A83" s="8">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15">
+      <c r="A84" s="8">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15">
+      <c r="A85" s="8">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15">
+      <c r="A86" s="8">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15">
+      <c r="A87" s="8">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="15">
+      <c r="A88" s="8">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15">
+      <c r="A89" s="8">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15">
+      <c r="A90" s="8">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15">
+      <c r="A91" s="8">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15">
+      <c r="A92" s="8">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15">
+      <c r="A93" s="8">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15">
+      <c r="A94" s="8">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="15">
+      <c r="A95" s="8">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="15">
+      <c r="A96" s="8">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15">
+      <c r="A97" s="8">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15">
+      <c r="A98" s="8">
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15">
+      <c r="A99" s="8">
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15">
+      <c r="A100" s="8">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15">
+      <c r="A101" s="8">
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="15">
+      <c r="A102" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15">
+      <c r="A103" s="8">
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15">
+      <c r="A104" s="8">
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15">
+      <c r="A105" s="8">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15">
+      <c r="A106" s="8">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15">
+      <c r="A107" s="8">
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15">
+      <c r="A108" s="8">
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15">
+      <c r="A109" s="8">
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15">
+      <c r="A110" s="8">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15">
+      <c r="A111" s="8">
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15">
+      <c r="A112" s="8">
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15">
+      <c r="A113" s="8">
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15">
+      <c r="A114" s="8">
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15">
+      <c r="A115" s="8">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15">
+      <c r="A116" s="8">
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="15">
+      <c r="A117" s="8">
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="15">
+      <c r="A118" s="8">
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="15">
+      <c r="A119" s="8">
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="15">
+      <c r="A120" s="8">
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="15">
+      <c r="A121" s="8">
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="15">
+      <c r="A122" s="8">
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="15">
+      <c r="A123" s="8">
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="15">
+      <c r="A124" s="8">
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15">
+      <c r="A125" s="8">
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15">
+      <c r="A126" s="8">
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15">
+      <c r="A127" s="8">
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15">
+      <c r="A128" s="8">
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15">
+      <c r="A129" s="8">
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15">
+      <c r="A130" s="8">
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="15">
+      <c r="A131" s="8">
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15">
+      <c r="A132" s="8">
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="15">
+      <c r="A133" s="8">
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15">
+      <c r="A134" s="8">
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15">
+      <c r="A135" s="8">
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="15">
+      <c r="A136" s="8">
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15">
+      <c r="A137" s="8">
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="15">
+      <c r="A138" s="8">
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="15">
+      <c r="A139" s="8">
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="15">
+      <c r="A140" s="8">
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="15">
+      <c r="A141" s="8">
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="15">
+      <c r="A142" s="8">
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="15">
+      <c r="A143" s="8">
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="15">
+      <c r="A144" s="8">
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="15">
+      <c r="A145" s="8">
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="15">
+      <c r="A146" s="8">
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="15">
+      <c r="A147" s="8">
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="15">
+      <c r="A148" s="8">
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15">
+      <c r="A149" s="8">
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15">
+      <c r="A150" s="8">
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="15">
+      <c r="A151" s="8">
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="15">
+      <c r="A152" s="8">
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="15">
+      <c r="A153" s="8">
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="15">
+      <c r="A154" s="8">
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="15">
+      <c r="A155" s="8">
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="15">
+      <c r="A156" s="8">
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="15">
+      <c r="A157" s="8">
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="15">
+      <c r="A158" s="8">
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="15">
+      <c r="A159" s="8">
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="15">
+      <c r="A160" s="8">
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="15">
+      <c r="A161" s="8">
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="15">
+      <c r="A162" s="8">
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="15">
+      <c r="A163" s="8">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15">
+      <c r="A164" s="8">
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="15">
+      <c r="A165" s="8">
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="15">
+      <c r="A166" s="8">
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="15">
+      <c r="A167" s="8">
         <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15">
+      <c r="A168" s="8">
         <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="15">
+      <c r="A169" s="8">
         <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="15">
+      <c r="A170" s="8">
         <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="15">
+      <c r="A171" s="8">
         <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="15">
+      <c r="A172" s="8">
         <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="15">
+      <c r="A173" s="8">
         <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="15">
+      <c r="A174" s="8">
         <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="15">
+      <c r="A175" s="8">
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="15">
+      <c r="A176" s="8">
         <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="15">
+      <c r="A177" s="8">
         <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="15">
+      <c r="A178" s="8">
         <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="15">
+      <c r="A179" s="8">
         <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="15">
+      <c r="A180" s="8">
         <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="15">
+      <c r="A181" s="8">
         <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="15">
+      <c r="A182" s="8">
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="15">
+      <c r="A183" s="8">
         <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="15">
+      <c r="A184" s="8">
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="15">
+      <c r="A185" s="8">
         <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="15">
+      <c r="A186" s="8">
         <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="15">
+      <c r="A187" s="8">
         <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="15">
+      <c r="A188" s="8">
         <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="15">
+      <c r="A189" s="8">
         <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="15">
+      <c r="A190" s="8">
         <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="15">
+      <c r="A191" s="8">
         <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="15">
+      <c r="A192" s="8">
         <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="15">
+      <c r="A193" s="8">
         <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="15">
+      <c r="A194" s="8">
         <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="15">
+      <c r="A195" s="8">
         <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="15">
+      <c r="A196" s="8">
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="15">
+      <c r="A197" s="8">
         <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="15">
+      <c r="A198" s="8">
         <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="15">
+      <c r="A199" s="8">
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="15">
+      <c r="A200" s="8">
         <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="15">
+      <c r="A201" s="8">
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="15">
+      <c r="A202" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="15">
+      <c r="A203" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="15">
+      <c r="A204" s="8">
         <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="15">
+      <c r="A205" s="8">
         <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="15">
+      <c r="A206" s="8">
         <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="15">
+      <c r="A207" s="8">
         <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="15">
+      <c r="A208" s="8">
         <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="15">
+      <c r="A209" s="8">
         <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="15">
+      <c r="A210" s="8">
         <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="15">
+      <c r="A211" s="8">
         <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="15">
+      <c r="A212" s="8">
         <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="15">
+      <c r="A213" s="8">
         <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="15">
+      <c r="A214" s="8">
         <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="15">
+      <c r="A215" s="8">
         <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="15">
+      <c r="A216" s="8">
         <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="15">
+      <c r="A217" s="8">
         <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="15">
+      <c r="A218" s="8">
         <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="15">
+      <c r="A219" s="8">
         <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="15">
+      <c r="A220" s="8">
         <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="15">
+      <c r="A221" s="8">
         <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15">
+      <c r="A222" s="8">
         <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="15">
+      <c r="A223" s="8">
         <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="15">
+      <c r="A224" s="8">
         <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="15">
+      <c r="A225" s="8">
         <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15">
+      <c r="A226" s="8">
         <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="15">
+      <c r="A227" s="8">
         <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="15">
+      <c r="A228" s="8">
         <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="15">
+      <c r="A229" s="8">
         <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="15">
+      <c r="A230" s="8">
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="15">
+      <c r="A231" s="8">
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="15">
+      <c r="A232" s="8">
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="15">
+      <c r="A233" s="8">
         <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="15">
+      <c r="A234" s="8">
         <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="15">
+      <c r="A235" s="8">
         <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="15">
+      <c r="A236" s="8">
         <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="15">
+      <c r="A237" s="8">
         <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="15">
+      <c r="A238" s="8">
         <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="15">
+      <c r="A239" s="8">
         <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="15">
+      <c r="A240" s="8">
         <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="15">
+      <c r="A241" s="8">
         <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="15">
+      <c r="A242" s="8">
         <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="15">
+      <c r="A243" s="8">
         <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="15">
+      <c r="A244" s="8">
         <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="15">
+      <c r="A245" s="8">
         <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="15">
+      <c r="A246" s="8">
         <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="15">
+      <c r="A247" s="8">
         <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="15">
+      <c r="A248" s="8">
         <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="15">
+      <c r="A249" s="8">
         <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="15">
+      <c r="A250" s="8">
         <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="15">
+      <c r="A251" s="8">
         <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="15">
+      <c r="A252" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="15">
+      <c r="A253" s="8">
         <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="15">
+      <c r="A254" s="8">
         <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="15">
+      <c r="A255" s="8">
         <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="15">
+      <c r="A256" s="8">
         <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="15">
+      <c r="A257" s="8">
         <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="15">
+      <c r="A258" s="8">
         <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="15">
+      <c r="A259" s="8">
         <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="15">
+      <c r="A260" s="8">
         <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="15">
+      <c r="A261" s="8">
         <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="15">
+      <c r="A262" s="8">
         <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="15">
+      <c r="A263" s="8">
         <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="15">
+      <c r="A264" s="8">
         <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="15">
+      <c r="A265" s="8">
         <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="15">
+      <c r="A266" s="8">
         <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="15">
+      <c r="A267" s="8">
         <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="15">
+      <c r="A268" s="8">
         <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="15">
+      <c r="A269" s="8">
         <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="15">
+      <c r="A270" s="8">
         <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="15">
+      <c r="A271" s="8">
         <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="15">
+      <c r="A272" s="8">
         <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="15">
+      <c r="A273" s="8">
         <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="15">
+      <c r="A274" s="8">
         <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="15">
+      <c r="A275" s="8">
         <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="15">
+      <c r="A276" s="8">
         <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="15">
+      <c r="A277" s="8">
         <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="15">
+      <c r="A278" s="8">
         <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="15">
+      <c r="A279" s="8">
         <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="15">
+      <c r="A280" s="8">
         <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="15">
+      <c r="A281" s="8">
         <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="15">
+      <c r="A282" s="8">
         <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="15">
+      <c r="A283" s="8">
         <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="15">
+      <c r="A284" s="8">
         <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="15">
+      <c r="A285" s="8">
         <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="15">
+      <c r="A286" s="8">
         <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="15">
+      <c r="A287" s="8">
         <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="15">
+      <c r="A288" s="8">
         <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="15">
+      <c r="A289" s="8">
         <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="15">
+      <c r="A290" s="8">
         <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="15">
+      <c r="A291" s="8">
         <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="15">
+      <c r="A292" s="8">
         <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="15">
+      <c r="A293" s="8">
         <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="15">
+      <c r="A294" s="8">
         <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="15">
+      <c r="A295" s="8">
         <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="15">
+      <c r="A296" s="8">
         <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="15">
+      <c r="A297" s="8">
         <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="15">
+      <c r="A298" s="8">
         <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="15">
+      <c r="A299" s="8">
         <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="15">
+      <c r="A300" s="8">
         <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="15">
+      <c r="A301" s="8">
         <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="15">
+      <c r="A302" s="8">
         <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="15">
+      <c r="A303" s="8">
         <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="15">
+      <c r="A304" s="8">
         <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="15">
+      <c r="A305" s="8">
         <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="15">
+      <c r="A306" s="8">
         <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="15">
+      <c r="A307" s="8">
         <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="15">
+      <c r="A308" s="8">
         <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="15">
+      <c r="A309" s="8">
         <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="15">
+      <c r="A310" s="8">
         <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="15">
+      <c r="A311" s="8">
         <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="15">
+      <c r="A312" s="8">
         <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="15">
+      <c r="A313" s="8">
         <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="15">
+      <c r="A314" s="8">
         <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="15">
+      <c r="A315" s="8">
         <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="15">
+      <c r="A316" s="8">
         <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="15">
+      <c r="A317" s="8">
         <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="15">
+      <c r="A318" s="8">
         <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="15">
+      <c r="A319" s="8">
         <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="15">
+      <c r="A320" s="8">
         <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="15">
+      <c r="A321" s="8">
         <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="15">
+      <c r="A322" s="8">
         <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="15">
+      <c r="A323" s="8">
         <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="15">
+      <c r="A324" s="8">
         <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="15">
+      <c r="A325" s="8">
         <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="15">
+      <c r="A326" s="8">
         <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="15">
+      <c r="A327" s="8">
         <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="15">
+      <c r="A328" s="8">
         <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="15">
+      <c r="A329" s="8">
         <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="15">
+      <c r="A330" s="8">
         <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="15">
+      <c r="A331" s="8">
         <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="15">
+      <c r="A332" s="8">
         <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="15">
+      <c r="A333" s="8">
         <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="15">
+      <c r="A334" s="8">
         <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="15">
+      <c r="A335" s="8">
         <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="15">
+      <c r="A336" s="8">
         <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="15">
+      <c r="A337" s="8">
         <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="15">
+      <c r="A338" s="8">
         <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="15">
+      <c r="A339" s="8">
         <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15">
+      <c r="A340" s="8">
         <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="15">
+      <c r="A341" s="8">
         <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="15">
+      <c r="A342" s="8">
         <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="15">
+      <c r="A343" s="8">
         <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15">
+      <c r="A344" s="8">
         <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="15">
+      <c r="A345" s="8">
         <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="15">
+      <c r="A346" s="8">
         <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="15">
+      <c r="A347" s="8">
         <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="15">
+      <c r="A348" s="8">
         <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="15">
+      <c r="A349" s="8">
         <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="15">
+      <c r="A350" s="8">
         <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="15">
+      <c r="A351" s="8">
         <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="15">
+      <c r="A352" s="8">
         <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="15">
+      <c r="A353" s="8">
         <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="15">
+      <c r="A354" s="8">
         <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="15">
+      <c r="A355" s="8">
         <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="15">
+      <c r="A356" s="8">
         <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="15">
+      <c r="A357" s="8">
         <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="15">
+      <c r="A358" s="8">
         <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="15">
+      <c r="A359" s="8">
         <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="15">
+      <c r="A360" s="8">
         <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="15">
+      <c r="A361" s="8">
         <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="15">
+      <c r="A362" s="8">
         <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="15">
+      <c r="A363" s="8">
         <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="15">
+      <c r="A364" s="8">
         <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="15">
+      <c r="A365" s="8">
         <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="15">
+      <c r="A366" s="8">
         <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="15">
+      <c r="A367" s="8">
         <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="15">
+      <c r="A368" s="8">
         <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="15">
+      <c r="A369" s="8">
         <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="15">
+      <c r="A370" s="8">
         <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="15">
+      <c r="A371" s="8">
         <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="15">
+      <c r="A372" s="8">
         <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="15">
+      <c r="A373" s="8">
         <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="15">
+      <c r="A374" s="8">
         <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="15">
+      <c r="A375" s="8">
         <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="15">
+      <c r="A376" s="8">
         <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="15">
+      <c r="A377" s="8">
         <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="15">
+      <c r="A378" s="8">
         <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="15">
+      <c r="A379" s="8">
         <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="15">
+      <c r="A380" s="8">
         <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="15">
+      <c r="A381" s="8">
         <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="15">
+      <c r="A382" s="8">
         <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="15">
+      <c r="A383" s="8">
         <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="15">
+      <c r="A384" s="8">
         <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="15">
+      <c r="A385" s="8">
         <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="15">
+      <c r="A386" s="8">
         <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="15">
+      <c r="A387" s="8">
         <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="15">
+      <c r="A388" s="8">
         <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="15">
+      <c r="A389" s="8">
         <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="15">
+      <c r="A390" s="8">
         <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="15">
+      <c r="A391" s="8">
         <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="15">
+      <c r="A392" s="8">
         <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="15">
+      <c r="A393" s="8">
         <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="15">
+      <c r="A394" s="8">
         <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="15">
+      <c r="A395" s="8">
         <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="15">
+      <c r="A396" s="8">
         <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="15">
+      <c r="A397" s="8">
         <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="15">
+      <c r="A398" s="8">
         <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="15">
+      <c r="A399" s="8">
         <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="15">
+      <c r="A400" s="8">
         <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="15">
+      <c r="A401" s="8">
         <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="15">
+      <c r="A402" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="15">
+      <c r="A403" s="8">
         <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15">
+      <c r="A404" s="8">
         <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="15">
+      <c r="A405" s="8">
         <v>403</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H2"/>
+  <autoFilter ref="D2:J2"/>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
   <si>
     <t>US</t>
   </si>
@@ -141,18 +141,6 @@
   </si>
   <si>
     <t>container/ttlupdate</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Regressietest #10.xml</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Regressietest #11.xml</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Regressietest #12.xml</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Regressietest #13.xml</t>
   </si>
   <si>
     <t>Pagina /id/concept/GeneriekBeest wordt bekeken</t>
@@ -245,6 +233,24 @@
   </si>
   <si>
     <t>Datacontrole toeleidingsbegrip</t>
+  </si>
+  <si>
+    <t>Zoekpagina</t>
+  </si>
+  <si>
+    <t>Toeleidingsbegrip</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.ttl</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole relaties.ttl</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole bron.ttl</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole toeleidingsbegrip.ttl</t>
   </si>
 </sst>
 </file>
@@ -764,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +788,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -805,10 +811,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -833,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -862,10 +868,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -894,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -926,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -955,10 +961,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -987,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1019,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -1051,10 +1057,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -1080,10 +1086,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
@@ -1112,10 +1118,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
@@ -1124,19 +1130,19 @@
         <v>36</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1144,10 +1150,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>35</v>
@@ -1156,19 +1162,19 @@
         <v>36</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1176,10 +1182,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
@@ -1188,19 +1194,19 @@
         <v>36</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1208,57 +1214,63 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
+      <c r="B16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="J16" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>US</t>
   </si>
@@ -64,13 +64,6 @@
     <t>Testbestand wordt nogmaals geupload</t>
   </si>
   <si>
-    <t>Omgevingsdocumenten/Regressietest/Regressietest #1.xml</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Regressietest #1.xml
-Omgevingsdocumenten/Regressietest/Regressietest #3.xml</t>
-  </si>
-  <si>
     <t>Container geeft als foutmelding "De upload bevat reeds bestaande concepten"</t>
   </si>
   <si>
@@ -86,55 +79,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>Pagina /id/concept/Gebouw wordt bekeken</t>
-  </si>
-  <si>
-    <t>Pagina /id/concept/Bouwwerk wordt bekeken</t>
-  </si>
-  <si>
     <t>GCO-391</t>
   </si>
   <si>
-    <t>Op de pagina is o.a. het volgende te zien:
-- Tabelweergave met als header 'bouwwerk'
-- Grafische weergave (niet leeg)
-In de tabel staan de volgende rijen (header | waarde):
-- Naam | Bouwwerk
-- Definitie | (niet leeg)
-- Startdatum versie | (niet leeg)
-- Laatste activiteit | (link)</t>
-  </si>
-  <si>
-    <t>Op de pagina is o.a. een tabelweergave te zien met daarin o.a.:
-- Een rij met als header 'Definitie' en als waarde een stuk tekst die begint met een link met als url /id/concept/Bouwwerk en als label 'bouwwerk'
-- Een rij met als header 'Is specialisatie van' en als waarde een link met als url /id/concept/Bouwwerk en als label 'bouwwerk'</t>
-  </si>
-  <si>
-    <t>Eerst is testbestand #1 geupload, vervolgens is testbestand #3 geupload</t>
-  </si>
-  <si>
-    <t>Op de pagina is o.a. een tabelweergave te zien met als header 'gebouwtje' en o.a. de volgende rij:
-- Naam | Gebouwtje
-Tevens is er een tabel te zien met als kolomheaders 'Andere versies' en 'Actueel tot', met daarin één rij met een link en een niet-lege waarde.</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Regressietest #8.xml</t>
-  </si>
-  <si>
     <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder term bevatten."</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Regressietest #1.xml
-Omgevingsdocumenten/Regressietest/Regressietest #8.xml</t>
-  </si>
-  <si>
-    <t>Testbestand #1 is geupload</t>
-  </si>
-  <si>
-    <t>Testbestand #3 wordt geupload</t>
-  </si>
-  <si>
-    <t>Testbestand #8 wordt geupload</t>
   </si>
   <si>
     <t>GCO-4</t>
@@ -161,19 +109,7 @@
 - Synoniemen | (link)</t>
   </si>
   <si>
-    <t>Testbestand #10 is geupload</t>
-  </si>
-  <si>
-    <t>Testbestand #11 is geupload</t>
-  </si>
-  <si>
     <t>Relaties</t>
-  </si>
-  <si>
-    <t>Testbestand #12 is geupload</t>
-  </si>
-  <si>
-    <t>Testbestand #13 is geupload</t>
   </si>
   <si>
     <t>Bron</t>
@@ -202,21 +138,9 @@
     <t>LOGISCHE TEST</t>
   </si>
   <si>
-    <t>Succesvolle upload</t>
-  </si>
-  <si>
     <t>Validatie bestaand concept</t>
   </si>
   <si>
-    <t>API POST XML</t>
-  </si>
-  <si>
-    <t>API PUT XML</t>
-  </si>
-  <si>
-    <t>Datacontrole</t>
-  </si>
-  <si>
     <t>Datacontrole attributen</t>
   </si>
   <si>
@@ -241,16 +165,110 @@
     <t>Toeleidingsbegrip</t>
   </si>
   <si>
-    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.ttl</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Datacontrole relaties.ttl</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Datacontrole bron.ttl</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Datacontrole toeleidingsbegrip.ttl</t>
+    <t>Concepten POST XML</t>
+  </si>
+  <si>
+    <t>Concepten PUT XML</t>
+  </si>
+  <si>
+    <t>Uploadcontrole</t>
+  </si>
+  <si>
+    <t>Datacontrole wijziging</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Invoervalidatie.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole relaties.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole relaties.xml
+Omgevingsdocumenten/Regressietest/Datacontrole wijziging.xml</t>
+  </si>
+  <si>
+    <t>Testbestand is geupload</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole wijziging.xml" wordt geupload</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.xml
+Omgevingsdocumenten/Regressietest/Datacontrole wijziging.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.xml
+Omgevingsdocumenten/Regressietest/Invoervalidatie.xml</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attributen.xml" is geupload</t>
+  </si>
+  <si>
+    <t>Testbestand "Invoervalidatie.xml" wordt geupload</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabelweergave te zien met daarin o.a.:
+- Een rij met als header 'Definitie' en als waarde "Definitie" plus een link met als url /id/concept/GeneriekBeest en als label 'generiek beest'
+- Een rij met als header 'Is specialisatie van' en als waarde een link met als url /id/concept/GeneriekBeest en als label 'generiek beest'</t>
+  </si>
+  <si>
+    <t>Pagina /id/concept/SpecifiekBeest wordt bekeken</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabelweergave te zien met als header 'generiek beestje' en o.a. de volgende rij:
+- Naam | GeneriekBeestje
+Tevens is er een tabel te zien met als kolomheaders 'Andere versies' en 'Actueel tot', met daarin één rij met een link en een niet-lege waarde.</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. het volgende te zien:
+- Tabelweergave met als header 'generiek beest'
+In de tabel staan o.a. de volgende rijen (header | waarde):
+- Naam | GeneriekBeest
+- Definitie | Definitie</t>
+  </si>
+  <si>
+    <t>Volgende twee acties in onderstaande volgorde uitgevoerd:
+- Testbestand "Datacontrole attributen.xml" is geupload via /container/concepten-post-xml
+- Testbestand "Datacontrole wijziging.xml" is geupload via /container/concepten-put-xml</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole relaties.xml" is geupload via /container/concepten-post-xml</t>
+  </si>
+  <si>
+    <t>/query/search</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/Datacontrole attributen.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/Datacontrole relaties.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/Datacontrole bron.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/Datacontrole toeleidingsbegrip.ttl</t>
+  </si>
+  <si>
+    <t>Datacontrole collectie</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/Datacontrole collecties.ttl</t>
+  </si>
+  <si>
+    <t>Collecties</t>
+  </si>
+  <si>
+    <t>Datacontrole waardelijsten</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/Datacontrole waardelijsten.ttl</t>
+  </si>
+  <si>
+    <t>Waardelijsten</t>
   </si>
 </sst>
 </file>
@@ -770,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +806,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -811,10 +829,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -839,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -851,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>13</v>
@@ -860,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -868,10 +886,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -880,19 +898,19 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -900,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -912,19 +930,19 @@
         <v>11</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -932,10 +950,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -944,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -953,103 +971,103 @@
         <v>10</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1057,19 +1075,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -1078,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1086,31 +1104,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="255" x14ac:dyDescent="0.25">
@@ -1118,31 +1136,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1150,31 +1168,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1182,31 +1200,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1214,141 +1232,189 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="95">
   <si>
     <t>US</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Datacontrole relaties</t>
   </si>
   <si>
-    <t>Invoervalidatie</t>
-  </si>
-  <si>
     <t>Upload Turtle</t>
   </si>
   <si>
@@ -177,14 +174,7 @@
     <t>Datacontrole wijziging</t>
   </si>
   <si>
-    <t>Omgevingsdocumenten/Regressietest/Invoervalidatie.xml</t>
-  </si>
-  <si>
     <t>Omgevingsdocumenten/Regressietest/Datacontrole relaties.xml</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Datacontrole relaties.xml
-Omgevingsdocumenten/Regressietest/Datacontrole wijziging.xml</t>
   </si>
   <si>
     <t>Testbestand is geupload</t>
@@ -200,14 +190,7 @@
 Omgevingsdocumenten/Regressietest/Datacontrole wijziging.xml</t>
   </si>
   <si>
-    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.xml
-Omgevingsdocumenten/Regressietest/Invoervalidatie.xml</t>
-  </si>
-  <si>
     <t>Testbestand "Datacontrole attributen.xml" is geupload</t>
-  </si>
-  <si>
-    <t>Testbestand "Invoervalidatie.xml" wordt geupload</t>
   </si>
   <si>
     <t>Op de pagina is o.a. een tabelweergave te zien met daarin o.a.:
@@ -235,40 +218,119 @@
 - Testbestand "Datacontrole wijziging.xml" is geupload via /container/concepten-put-xml</t>
   </si>
   <si>
-    <t>Testbestand "Datacontrole relaties.xml" is geupload via /container/concepten-post-xml</t>
-  </si>
-  <si>
-    <t>/query/search</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/Datacontrole attributen.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/Datacontrole relaties.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/Datacontrole bron.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/Datacontrole toeleidingsbegrip.ttl</t>
-  </si>
-  <si>
     <t>Datacontrole collectie</t>
   </si>
   <si>
-    <t>Concepten/Regressietest/Datacontrole collecties.ttl</t>
-  </si>
-  <si>
     <t>Collecties</t>
   </si>
   <si>
     <t>Datacontrole waardelijsten</t>
   </si>
   <si>
-    <t>Concepten/Regressietest/Datacontrole waardelijsten.ttl</t>
-  </si>
-  <si>
     <t>Waardelijsten</t>
+  </si>
+  <si>
+    <t>Concepten POST Turtle</t>
+  </si>
+  <si>
+    <t>GCO-470</t>
+  </si>
+  <si>
+    <t>query/search</t>
+  </si>
+  <si>
+    <t>container/concepten-post-ttl</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Uploadcontrole.xml</t>
+  </si>
+  <si>
+    <t>Concepten PUT Turtle</t>
+  </si>
+  <si>
+    <t>container/concepten-put-ttl</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole wijziging.ttl" wordt geupload</t>
+  </si>
+  <si>
+    <t>Validatie term</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Validatie term.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.xml
+Omgevingsdocumenten/Regressietest/Validatie term.xml</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie term.xml" wordt geupload</t>
+  </si>
+  <si>
+    <t>Validatie label</t>
+  </si>
+  <si>
+    <t>Validatie prefLabel</t>
+  </si>
+  <si>
+    <t>GCO-466</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder rdfs:label bevatten."</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder skos:prefLabel bevatten."</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attribuut.ttl" is geupload via /container/concepten-post-ttl</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attributen.xml" is geupload via /container/concepten-post-xml</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie label.ttl" wordt geupload</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie prefLabel.ttl" wordt geupload</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole relaties.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole bron.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole toeleidingsbegrip.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole collecties.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole waardelijsten.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Uploadcontrole.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie label.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
+Concepten/Regressietest/ttl/Datacontrole wijziging.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
+Concepten/Regressietest/ttl/Validatie label.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
+Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
   </si>
 </sst>
 </file>
@@ -788,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -869,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>13</v>
@@ -886,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -898,13 +960,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>14</v>
@@ -918,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -930,16 +992,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>16</v>
@@ -950,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>35</v>
@@ -962,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -979,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>36</v>
@@ -991,19 +1053,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>37</v>
@@ -1023,19 +1085,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -1043,10 +1105,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1055,19 +1117,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1075,10 +1137,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -1087,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -1104,10 +1166,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -1116,16 +1178,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>21</v>
@@ -1136,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>36</v>
@@ -1148,13 +1210,13 @@
         <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>24</v>
@@ -1168,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>37</v>
@@ -1180,13 +1242,13 @@
         <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>24</v>
@@ -1200,10 +1262,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
@@ -1212,13 +1274,13 @@
         <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>24</v>
@@ -1232,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -1244,13 +1306,13 @@
         <v>23</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>24</v>
@@ -1264,10 +1326,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
@@ -1276,19 +1338,19 @@
         <v>23</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1296,25 +1358,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1322,10 +1384,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -1334,13 +1396,13 @@
         <v>64</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>30</v>
@@ -1349,44 +1411,248 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="109">
   <si>
     <t>US</t>
   </si>
@@ -331,6 +331,51 @@
   <si>
     <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
 Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
+  </si>
+  <si>
+    <t>Concepten POST json-ld</t>
+  </si>
+  <si>
+    <t>Concepten PUT json-ld</t>
+  </si>
+  <si>
+    <t>container/concepten-post-jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Uploadcontrole.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Validatie label.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Validatie prefLabel.jsonld</t>
+  </si>
+  <si>
+    <t>container/concepten-put-jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
+Concepten/Regressietest/jsonld/Datacontrole wijziging.jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attribuut.jsonld" is geupload via /container/concepten-post-jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole wijziging.jsonld" wordt geupload</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
+Concepten/Regressietest/jsonld/Validatie label.jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie label.jsonld" wordt geupload</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
+Concepten/Regressietest/jsonld/Validatie prefLabel.jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie prefLabel.jsonld" wordt geupload</t>
   </si>
 </sst>
 </file>
@@ -850,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,112 +1700,316 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$J$2</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="108">
   <si>
     <t>US</t>
   </si>
@@ -112,13 +112,7 @@
     <t>Relaties</t>
   </si>
   <si>
-    <t>Bron</t>
-  </si>
-  <si>
     <t>GCO-294</t>
-  </si>
-  <si>
-    <t>Toeleidingsbegrippen</t>
   </si>
   <si>
     <t>Pagina /query/search?term=monster wordt bekeken</t>
@@ -150,9 +144,6 @@
     <t>Upload Turtle</t>
   </si>
   <si>
-    <t>Datacontrole bron</t>
-  </si>
-  <si>
     <t>Datacontrole toeleidingsbegrip</t>
   </si>
   <si>
@@ -193,189 +184,198 @@
     <t>Testbestand "Datacontrole attributen.xml" is geupload</t>
   </si>
   <si>
-    <t>Op de pagina is o.a. een tabelweergave te zien met daarin o.a.:
-- Een rij met als header 'Definitie' en als waarde "Definitie" plus een link met als url /id/concept/GeneriekBeest en als label 'generiek beest'
-- Een rij met als header 'Is specialisatie van' en als waarde een link met als url /id/concept/GeneriekBeest en als label 'generiek beest'</t>
-  </si>
-  <si>
     <t>Pagina /id/concept/SpecifiekBeest wordt bekeken</t>
   </si>
   <si>
-    <t>Op de pagina is o.a. een tabelweergave te zien met als header 'generiek beestje' en o.a. de volgende rij:
+    <t>Volgende twee acties in onderstaande volgorde uitgevoerd:
+- Testbestand "Datacontrole attributen.xml" is geupload via /container/concepten-post-xml
+- Testbestand "Datacontrole wijziging.xml" is geupload via /container/concepten-put-xml</t>
+  </si>
+  <si>
+    <t>Datacontrole collectie</t>
+  </si>
+  <si>
+    <t>Collecties</t>
+  </si>
+  <si>
+    <t>Datacontrole waardelijsten</t>
+  </si>
+  <si>
+    <t>Waardelijsten</t>
+  </si>
+  <si>
+    <t>Concepten POST Turtle</t>
+  </si>
+  <si>
+    <t>GCO-470</t>
+  </si>
+  <si>
+    <t>query/search</t>
+  </si>
+  <si>
+    <t>container/concepten-post-ttl</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Uploadcontrole.xml</t>
+  </si>
+  <si>
+    <t>Concepten PUT Turtle</t>
+  </si>
+  <si>
+    <t>container/concepten-put-ttl</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole wijziging.ttl" wordt geupload</t>
+  </si>
+  <si>
+    <t>Validatie term</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Validatie term.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.xml
+Omgevingsdocumenten/Regressietest/Validatie term.xml</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie term.xml" wordt geupload</t>
+  </si>
+  <si>
+    <t>Validatie label</t>
+  </si>
+  <si>
+    <t>Validatie prefLabel</t>
+  </si>
+  <si>
+    <t>GCO-466</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder rdfs:label bevatten."</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder skos:prefLabel bevatten."</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attribuut.ttl" is geupload via /container/concepten-post-ttl</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attributen.xml" is geupload via /container/concepten-post-xml</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie label.ttl" wordt geupload</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie prefLabel.ttl" wordt geupload</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole relaties.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole toeleidingsbegrip.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole collecties.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole waardelijsten.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Uploadcontrole.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie label.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
+Concepten/Regressietest/ttl/Datacontrole wijziging.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
+Concepten/Regressietest/ttl/Validatie label.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
+Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
+  </si>
+  <si>
+    <t>Concepten POST json-ld</t>
+  </si>
+  <si>
+    <t>Concepten PUT json-ld</t>
+  </si>
+  <si>
+    <t>container/concepten-post-jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Uploadcontrole.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Validatie label.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Validatie prefLabel.jsonld</t>
+  </si>
+  <si>
+    <t>container/concepten-put-jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
+Concepten/Regressietest/jsonld/Datacontrole wijziging.jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attribuut.jsonld" is geupload via /container/concepten-post-jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole wijziging.jsonld" wordt geupload</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
+Concepten/Regressietest/jsonld/Validatie label.jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie label.jsonld" wordt geupload</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
+Concepten/Regressietest/jsonld/Validatie prefLabel.jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie prefLabel.jsonld" wordt geupload</t>
+  </si>
+  <si>
+    <t>Volgende twee acties in onderstaande volgorde uitgevoerd:
+- Testbestand "Datacontrole attributen.ttl" is geupload
+- Testbestand "Datacontrole wijziging.ttl" is geupload</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabelweergave te zien met als header 'Generiek beestje' en o.a. de volgende rij:
 - Naam | GeneriekBeestje
 Tevens is er een tabel te zien met als kolomheaders 'Andere versies' en 'Actueel tot', met daarin één rij met een link en een niet-lege waarde.</t>
   </si>
   <si>
     <t>Op de pagina is o.a. het volgende te zien:
-- Tabelweergave met als header 'generiek beest'
+- Tabelweergave met als header 'Generiek beest'
 In de tabel staan o.a. de volgende rijen (header | waarde):
 - Naam | GeneriekBeest
 - Definitie | Definitie</t>
   </si>
   <si>
-    <t>Volgende twee acties in onderstaande volgorde uitgevoerd:
-- Testbestand "Datacontrole attributen.xml" is geupload via /container/concepten-post-xml
-- Testbestand "Datacontrole wijziging.xml" is geupload via /container/concepten-put-xml</t>
-  </si>
-  <si>
-    <t>Datacontrole collectie</t>
-  </si>
-  <si>
-    <t>Collecties</t>
-  </si>
-  <si>
-    <t>Datacontrole waardelijsten</t>
-  </si>
-  <si>
-    <t>Waardelijsten</t>
-  </si>
-  <si>
-    <t>Concepten POST Turtle</t>
-  </si>
-  <si>
-    <t>GCO-470</t>
-  </si>
-  <si>
-    <t>query/search</t>
-  </si>
-  <si>
-    <t>container/concepten-post-ttl</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Uploadcontrole.xml</t>
-  </si>
-  <si>
-    <t>Concepten PUT Turtle</t>
-  </si>
-  <si>
-    <t>container/concepten-put-ttl</t>
-  </si>
-  <si>
-    <t>Testbestand "Datacontrole wijziging.ttl" wordt geupload</t>
-  </si>
-  <si>
-    <t>Validatie term</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Validatie term.xml</t>
-  </si>
-  <si>
-    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.xml
-Omgevingsdocumenten/Regressietest/Validatie term.xml</t>
-  </si>
-  <si>
-    <t>Testbestand "Validatie term.xml" wordt geupload</t>
-  </si>
-  <si>
-    <t>Validatie label</t>
-  </si>
-  <si>
-    <t>Validatie prefLabel</t>
-  </si>
-  <si>
-    <t>GCO-466</t>
-  </si>
-  <si>
-    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder rdfs:label bevatten."</t>
-  </si>
-  <si>
-    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder skos:prefLabel bevatten."</t>
-  </si>
-  <si>
-    <t>Testbestand "Datacontrole attribuut.ttl" is geupload via /container/concepten-post-ttl</t>
-  </si>
-  <si>
-    <t>Testbestand "Datacontrole attributen.xml" is geupload via /container/concepten-post-xml</t>
-  </si>
-  <si>
-    <t>Testbestand "Validatie label.ttl" wordt geupload</t>
-  </si>
-  <si>
-    <t>Testbestand "Validatie prefLabel.ttl" wordt geupload</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole relaties.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole bron.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole toeleidingsbegrip.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole collecties.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole waardelijsten.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Uploadcontrole.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Validatie label.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
-Concepten/Regressietest/ttl/Datacontrole wijziging.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
-Concepten/Regressietest/ttl/Validatie label.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
-Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
-  </si>
-  <si>
-    <t>Concepten POST json-ld</t>
-  </si>
-  <si>
-    <t>Concepten PUT json-ld</t>
-  </si>
-  <si>
-    <t>container/concepten-post-jsonld</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/jsonld/Uploadcontrole.jsonld</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/jsonld/Validatie label.jsonld</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/jsonld/Validatie prefLabel.jsonld</t>
-  </si>
-  <si>
-    <t>container/concepten-put-jsonld</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
-Concepten/Regressietest/jsonld/Datacontrole wijziging.jsonld</t>
-  </si>
-  <si>
-    <t>Testbestand "Datacontrole attribuut.jsonld" is geupload via /container/concepten-post-jsonld</t>
-  </si>
-  <si>
-    <t>Testbestand "Datacontrole wijziging.jsonld" wordt geupload</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
-Concepten/Regressietest/jsonld/Validatie label.jsonld</t>
-  </si>
-  <si>
-    <t>Testbestand "Validatie label.jsonld" wordt geupload</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
-Concepten/Regressietest/jsonld/Validatie prefLabel.jsonld</t>
-  </si>
-  <si>
-    <t>Testbestand "Validatie prefLabel.jsonld" wordt geupload</t>
+    <t>Op de pagina is o.a. een tabelweergave te zien met daarin o.a.:
+- Een rij met als header 'Definitie' en als waarde "Definitie" plus een link met als url /id/concept/GeneriekBeest en als label 'generiek beest'
+- Een rij met als header 'Is specialisatie van' en als waarde een link met als url /id/concept/GeneriekBeest en als label 'Generiek beest'</t>
+  </si>
+  <si>
+    <t>GCO-293</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabel te zien met als header 'Generiek beest' en o.a. de volgende rij:
+- Is ongeveer hetzelfde als | Monster</t>
   </si>
 </sst>
 </file>
@@ -893,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J405"/>
+  <dimension ref="A1:J1376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="8" customWidth="1"/>
     <col min="2" max="3" width="35.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="7" customWidth="1"/>
@@ -913,7 +913,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -936,10 +936,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -976,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>13</v>
@@ -990,13 +990,14 @@
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1005,13 +1006,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>14</v>
@@ -1022,13 +1023,14 @@
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
+        <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1037,16 +1039,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>16</v>
@@ -1054,13 +1056,14 @@
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1069,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -1083,13 +1086,14 @@
     </row>
     <row r="7" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1098,30 +1102,31 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1130,30 +1135,31 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1162,30 +1168,31 @@
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -1194,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -1208,13 +1215,14 @@
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -1223,30 +1231,31 @@
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -1255,126 +1264,121 @@
         <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
@@ -1383,187 +1387,202 @@
         <v>23</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="I19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>13</v>
@@ -1571,60 +1590,62 @@
       <c r="I22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -1633,91 +1654,91 @@
         <v>10</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="I25" s="10" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>13</v>
@@ -1725,89 +1746,95 @@
       <c r="I27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J27" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="H29" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="I29" s="10" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
@@ -1815,60 +1842,62 @@
       <c r="I30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J30" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -1877,1926 +1906,8200 @@
         <v>10</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="I33" s="10" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
+        <f t="shared" si="0"/>
         <v>35</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
+        <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
+        <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
+        <f t="shared" ref="A197:A260" si="3">A196+1</f>
         <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
+        <f t="shared" si="3"/>
         <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
+        <f t="shared" ref="A261:A324" si="4">A260+1</f>
         <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
+        <f t="shared" si="4"/>
         <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
+        <f t="shared" si="4"/>
         <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
+        <f t="shared" ref="A325:A388" si="5">A324+1</f>
         <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
+        <f t="shared" si="5"/>
         <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
+        <f t="shared" si="5"/>
         <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
+        <f t="shared" si="5"/>
         <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
+        <f t="shared" si="5"/>
         <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
+        <f t="shared" si="5"/>
         <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
+        <f t="shared" si="5"/>
         <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
+        <f t="shared" si="5"/>
         <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
+        <f t="shared" si="5"/>
         <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
+        <f t="shared" si="5"/>
         <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
+        <f t="shared" si="5"/>
         <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
+        <f t="shared" si="5"/>
         <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
+        <f t="shared" si="5"/>
         <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
+        <f t="shared" si="5"/>
         <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
+        <f t="shared" si="5"/>
         <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
+        <f t="shared" si="5"/>
         <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
+        <f t="shared" si="5"/>
         <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
+        <f t="shared" si="5"/>
         <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
+        <f t="shared" si="5"/>
         <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
+        <f t="shared" si="5"/>
         <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
+        <f t="shared" si="5"/>
         <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
+        <f t="shared" si="5"/>
         <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
+        <f t="shared" si="5"/>
         <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
+        <f t="shared" si="5"/>
         <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
+        <f t="shared" si="5"/>
         <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
+        <f t="shared" si="5"/>
         <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
+        <f t="shared" si="5"/>
         <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
+        <f t="shared" si="5"/>
         <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
+        <f t="shared" si="5"/>
         <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
+        <f t="shared" si="5"/>
         <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
+        <f t="shared" si="5"/>
         <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
+        <f t="shared" ref="A389:A452" si="6">A388+1</f>
         <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="8">
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="8">
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="8">
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="8">
+        <f t="shared" si="6"/>
         <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="8">
+        <f t="shared" si="6"/>
         <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="8">
+        <f t="shared" si="6"/>
         <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="8">
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="8">
+        <f t="shared" si="6"/>
         <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="8">
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="8">
+        <f t="shared" si="6"/>
         <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="8">
+        <f t="shared" si="6"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="8">
+        <f t="shared" si="6"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="8">
+        <f t="shared" si="6"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="8">
+        <f t="shared" si="6"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="8">
+        <f t="shared" si="6"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="8">
+        <f t="shared" si="6"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="8">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="8">
+        <f t="shared" si="6"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="8">
+        <f t="shared" si="6"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="8">
+        <f t="shared" si="6"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="8">
+        <f t="shared" si="6"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="8">
+        <f t="shared" si="6"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="8">
+        <f t="shared" si="6"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="8">
+        <f t="shared" si="6"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="8">
+        <f t="shared" si="6"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="8">
+        <f t="shared" si="6"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="8">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="8">
+        <f t="shared" si="6"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="8">
+        <f t="shared" si="6"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="8">
+        <f t="shared" si="6"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="8">
+        <f t="shared" si="6"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="8">
+        <f t="shared" si="6"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="8">
+        <f t="shared" si="6"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="8">
+        <f t="shared" si="6"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="8">
+        <f t="shared" si="6"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="8">
+        <f t="shared" si="6"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="8">
+        <f t="shared" si="6"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="8">
+        <f t="shared" si="6"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="8">
+        <f t="shared" si="6"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="8">
+        <f t="shared" si="6"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="8">
+        <f t="shared" si="6"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="8">
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="8">
+        <f t="shared" si="6"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="8">
+        <f t="shared" si="6"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="8">
+        <f t="shared" si="6"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="8">
+        <f t="shared" si="6"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="8">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="8">
+        <f t="shared" si="6"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="8">
+        <f t="shared" si="6"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="8">
+        <f t="shared" si="6"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="8">
+        <f t="shared" si="6"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="8">
+        <f t="shared" si="6"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="8">
+        <f t="shared" si="6"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="8">
+        <f t="shared" si="6"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="8">
+        <f t="shared" si="6"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="8">
+        <f t="shared" si="6"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="8">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="8">
+        <f t="shared" ref="A453:A516" si="7">A452+1</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="8">
+        <f t="shared" si="7"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="8">
+        <f t="shared" si="7"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="8">
+        <f t="shared" si="7"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="8">
+        <f t="shared" si="7"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="8">
+        <f t="shared" si="7"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="8">
+        <f t="shared" si="7"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="8">
+        <f t="shared" si="7"/>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="8">
+        <f t="shared" si="7"/>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="8">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="8">
+        <f t="shared" si="7"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="8">
+        <f t="shared" si="7"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="8">
+        <f t="shared" si="7"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="8">
+        <f t="shared" si="7"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="8">
+        <f t="shared" si="7"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="8">
+        <f t="shared" si="7"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="8">
+        <f t="shared" si="7"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="8">
+        <f t="shared" si="7"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="8">
+        <f t="shared" si="7"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="8">
+        <f t="shared" si="7"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="8">
+        <f t="shared" si="7"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="8">
+        <f t="shared" si="7"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="8">
+        <f t="shared" si="7"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="8">
+        <f t="shared" si="7"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="8">
+        <f t="shared" si="7"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="8">
+        <f t="shared" si="7"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="8">
+        <f t="shared" si="7"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="8">
+        <f t="shared" si="7"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="8">
+        <f t="shared" si="7"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="8">
+        <f t="shared" si="7"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="8">
+        <f t="shared" si="7"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="8">
+        <f t="shared" si="7"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="8">
+        <f t="shared" si="7"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="8">
+        <f t="shared" si="7"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="8">
+        <f t="shared" si="7"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="8">
+        <f t="shared" si="7"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="8">
+        <f t="shared" si="7"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="8">
+        <f t="shared" si="7"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="8">
+        <f t="shared" si="7"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="8">
+        <f t="shared" si="7"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="8">
+        <f t="shared" si="7"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="8">
+        <f t="shared" si="7"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="8">
+        <f t="shared" si="7"/>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="8">
+        <f t="shared" si="7"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="8">
+        <f t="shared" si="7"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="8">
+        <f t="shared" si="7"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="8">
+        <f t="shared" si="7"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="8">
+        <f t="shared" si="7"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="8">
+        <f t="shared" si="7"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="8">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="8">
+        <f t="shared" si="7"/>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="8">
+        <f t="shared" si="7"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="8">
+        <f t="shared" si="7"/>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="8">
+        <f t="shared" si="7"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="8">
+        <f t="shared" si="7"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="8">
+        <f t="shared" si="7"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="8">
+        <f t="shared" si="7"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="8">
+        <f t="shared" si="7"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="8">
+        <f t="shared" si="7"/>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="8">
+        <f t="shared" si="7"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="8">
+        <f t="shared" si="7"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="8">
+        <f t="shared" si="7"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="8">
+        <f t="shared" si="7"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="8">
+        <f t="shared" si="7"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="8">
+        <f t="shared" ref="A517:A580" si="8">A516+1</f>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="8">
+        <f t="shared" si="8"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="8">
+        <f t="shared" si="8"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="8">
+        <f t="shared" si="8"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="8">
+        <f t="shared" si="8"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="8">
+        <f t="shared" si="8"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="8">
+        <f t="shared" si="8"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="8">
+        <f t="shared" si="8"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="8">
+        <f t="shared" si="8"/>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="8">
+        <f t="shared" si="8"/>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="8">
+        <f t="shared" si="8"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="8">
+        <f t="shared" si="8"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="8">
+        <f t="shared" si="8"/>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="8">
+        <f t="shared" si="8"/>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="8">
+        <f t="shared" si="8"/>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="8">
+        <f t="shared" si="8"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="8">
+        <f t="shared" si="8"/>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="8">
+        <f t="shared" si="8"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="8">
+        <f t="shared" si="8"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="8">
+        <f t="shared" si="8"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="8">
+        <f t="shared" si="8"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="8">
+        <f t="shared" si="8"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="8">
+        <f t="shared" si="8"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="8">
+        <f t="shared" si="8"/>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="8">
+        <f t="shared" si="8"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="8">
+        <f t="shared" si="8"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="8">
+        <f t="shared" si="8"/>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="8">
+        <f t="shared" si="8"/>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="8">
+        <f t="shared" si="8"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="8">
+        <f t="shared" si="8"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="8">
+        <f t="shared" si="8"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="8">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="8">
+        <f t="shared" si="8"/>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="8">
+        <f t="shared" si="8"/>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="8">
+        <f t="shared" si="8"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="8">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="8">
+        <f t="shared" si="8"/>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="8">
+        <f t="shared" si="8"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="8">
+        <f t="shared" si="8"/>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="8">
+        <f t="shared" si="8"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="8">
+        <f t="shared" si="8"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="8">
+        <f t="shared" si="8"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="8">
+        <f t="shared" si="8"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="8">
+        <f t="shared" si="8"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="8">
+        <f t="shared" si="8"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="8">
+        <f t="shared" si="8"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="8">
+        <f t="shared" si="8"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="8">
+        <f t="shared" si="8"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="8">
+        <f t="shared" si="8"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="8">
+        <f t="shared" si="8"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="8">
+        <f t="shared" si="8"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="8">
+        <f t="shared" si="8"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="8">
+        <f t="shared" si="8"/>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="8">
+        <f t="shared" si="8"/>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="8">
+        <f t="shared" si="8"/>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="8">
+        <f t="shared" si="8"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="8">
+        <f t="shared" si="8"/>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="8">
+        <f t="shared" si="8"/>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="8">
+        <f t="shared" si="8"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="8">
+        <f t="shared" si="8"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="8">
+        <f t="shared" si="8"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="8">
+        <f t="shared" si="8"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="8">
+        <f t="shared" si="8"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="8">
+        <f t="shared" si="8"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="8">
+        <f t="shared" ref="A581:A644" si="9">A580+1</f>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="8">
+        <f t="shared" si="9"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="8">
+        <f t="shared" si="9"/>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="8">
+        <f t="shared" si="9"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="8">
+        <f t="shared" si="9"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="8">
+        <f t="shared" si="9"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="8">
+        <f t="shared" si="9"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="8">
+        <f t="shared" si="9"/>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="8">
+        <f t="shared" si="9"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="8">
+        <f t="shared" si="9"/>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="8">
+        <f t="shared" si="9"/>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="8">
+        <f t="shared" si="9"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="8">
+        <f t="shared" si="9"/>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="8">
+        <f t="shared" si="9"/>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="8">
+        <f t="shared" si="9"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="8">
+        <f t="shared" si="9"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="8">
+        <f t="shared" si="9"/>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="8">
+        <f t="shared" si="9"/>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="8">
+        <f t="shared" si="9"/>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="8">
+        <f t="shared" si="9"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="8">
+        <f t="shared" si="9"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="8">
+        <f t="shared" si="9"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="8">
+        <f t="shared" si="9"/>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="8">
+        <f t="shared" si="9"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="8">
+        <f t="shared" si="9"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="8">
+        <f t="shared" si="9"/>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="8">
+        <f t="shared" si="9"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="8">
+        <f t="shared" si="9"/>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="8">
+        <f t="shared" si="9"/>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="8">
+        <f t="shared" si="9"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="8">
+        <f t="shared" si="9"/>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="8">
+        <f t="shared" si="9"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="8">
+        <f t="shared" si="9"/>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="8">
+        <f t="shared" si="9"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="8">
+        <f t="shared" si="9"/>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="8">
+        <f t="shared" si="9"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="8">
+        <f t="shared" si="9"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="8">
+        <f t="shared" si="9"/>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="8">
+        <f t="shared" si="9"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="8">
+        <f t="shared" si="9"/>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="8">
+        <f t="shared" si="9"/>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="8">
+        <f t="shared" si="9"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="8">
+        <f t="shared" si="9"/>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="8">
+        <f t="shared" si="9"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="8">
+        <f t="shared" si="9"/>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="8">
+        <f t="shared" si="9"/>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="8">
+        <f t="shared" si="9"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="8">
+        <f t="shared" si="9"/>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="8">
+        <f t="shared" si="9"/>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="8">
+        <f t="shared" si="9"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="8">
+        <f t="shared" si="9"/>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="8">
+        <f t="shared" si="9"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="8">
+        <f t="shared" si="9"/>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="8">
+        <f t="shared" si="9"/>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="8">
+        <f t="shared" si="9"/>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="8">
+        <f t="shared" si="9"/>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="8">
+        <f t="shared" si="9"/>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="8">
+        <f t="shared" si="9"/>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="8">
+        <f t="shared" si="9"/>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="8">
+        <f t="shared" si="9"/>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="8">
+        <f t="shared" si="9"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="8">
+        <f t="shared" si="9"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="8">
+        <f t="shared" si="9"/>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="8">
+        <f t="shared" si="9"/>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="8">
+        <f t="shared" ref="A645:A708" si="10">A644+1</f>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="8">
+        <f t="shared" si="10"/>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="8">
+        <f t="shared" si="10"/>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="8">
+        <f t="shared" si="10"/>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="8">
+        <f t="shared" si="10"/>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="8">
+        <f t="shared" si="10"/>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="8">
+        <f t="shared" si="10"/>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="8">
+        <f t="shared" si="10"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="8">
+        <f t="shared" si="10"/>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="8">
+        <f t="shared" si="10"/>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="8">
+        <f t="shared" si="10"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="8">
+        <f t="shared" si="10"/>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="8">
+        <f t="shared" si="10"/>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="8">
+        <f t="shared" si="10"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="8">
+        <f t="shared" si="10"/>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="8">
+        <f t="shared" si="10"/>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="8">
+        <f t="shared" si="10"/>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="8">
+        <f t="shared" si="10"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="8">
+        <f t="shared" si="10"/>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="8">
+        <f t="shared" si="10"/>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="8">
+        <f t="shared" si="10"/>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="8">
+        <f t="shared" si="10"/>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="8">
+        <f t="shared" si="10"/>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="8">
+        <f t="shared" si="10"/>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="8">
+        <f t="shared" si="10"/>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="8">
+        <f t="shared" si="10"/>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="8">
+        <f t="shared" si="10"/>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="8">
+        <f t="shared" si="10"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="8">
+        <f t="shared" si="10"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="8">
+        <f t="shared" si="10"/>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="8">
+        <f t="shared" si="10"/>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="8">
+        <f t="shared" si="10"/>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="8">
+        <f t="shared" si="10"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="8">
+        <f t="shared" si="10"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="8">
+        <f t="shared" si="10"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="8">
+        <f t="shared" si="10"/>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="8">
+        <f t="shared" si="10"/>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="8">
+        <f t="shared" si="10"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="8">
+        <f t="shared" si="10"/>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="8">
+        <f t="shared" si="10"/>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="8">
+        <f t="shared" si="10"/>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="8">
+        <f t="shared" si="10"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="8">
+        <f t="shared" si="10"/>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="8">
+        <f t="shared" si="10"/>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="8">
+        <f t="shared" si="10"/>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="8">
+        <f t="shared" si="10"/>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="8">
+        <f t="shared" si="10"/>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="8">
+        <f t="shared" si="10"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="8">
+        <f t="shared" si="10"/>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="8">
+        <f t="shared" si="10"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="8">
+        <f t="shared" si="10"/>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="8">
+        <f t="shared" si="10"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="8">
+        <f t="shared" si="10"/>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="8">
+        <f t="shared" si="10"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="8">
+        <f t="shared" si="10"/>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="8">
+        <f t="shared" si="10"/>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="8">
+        <f t="shared" si="10"/>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="8">
+        <f t="shared" si="10"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="8">
+        <f t="shared" si="10"/>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="8">
+        <f t="shared" si="10"/>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="8">
+        <f t="shared" si="10"/>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="8">
+        <f t="shared" si="10"/>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="8">
+        <f t="shared" si="10"/>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="8">
+        <f t="shared" si="10"/>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="8">
+        <f t="shared" ref="A709:A772" si="11">A708+1</f>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="8">
+        <f t="shared" si="11"/>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="8">
+        <f t="shared" si="11"/>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="8">
+        <f t="shared" si="11"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="8">
+        <f t="shared" si="11"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="8">
+        <f t="shared" si="11"/>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="8">
+        <f t="shared" si="11"/>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="8">
+        <f t="shared" si="11"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="8">
+        <f t="shared" si="11"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="8">
+        <f t="shared" si="11"/>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="8">
+        <f t="shared" si="11"/>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="8">
+        <f t="shared" si="11"/>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="8">
+        <f t="shared" si="11"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" s="8">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="8">
+        <f t="shared" si="11"/>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="8">
+        <f t="shared" si="11"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" s="8">
+        <f t="shared" si="11"/>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" s="8">
+        <f t="shared" si="11"/>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" s="8">
+        <f t="shared" si="11"/>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" s="8">
+        <f t="shared" si="11"/>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" s="8">
+        <f t="shared" si="11"/>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" s="8">
+        <f t="shared" si="11"/>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="8">
+        <f t="shared" si="11"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="8">
+        <f t="shared" si="11"/>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" s="8">
+        <f t="shared" si="11"/>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="8">
+        <f t="shared" si="11"/>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="8">
+        <f t="shared" si="11"/>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="8">
+        <f t="shared" si="11"/>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="8">
+        <f t="shared" si="11"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="8">
+        <f t="shared" si="11"/>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="8">
+        <f t="shared" si="11"/>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="8">
+        <f t="shared" si="11"/>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="8">
+        <f t="shared" si="11"/>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="8">
+        <f t="shared" si="11"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="8">
+        <f t="shared" si="11"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="8">
+        <f t="shared" si="11"/>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="8">
+        <f t="shared" si="11"/>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="8">
+        <f t="shared" si="11"/>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="8">
+        <f t="shared" si="11"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="8">
+        <f t="shared" si="11"/>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="8">
+        <f t="shared" si="11"/>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="8">
+        <f t="shared" si="11"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="8">
+        <f t="shared" si="11"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="8">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="8">
+        <f t="shared" si="11"/>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="8">
+        <f t="shared" si="11"/>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="8">
+        <f t="shared" si="11"/>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="8">
+        <f t="shared" si="11"/>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="8">
+        <f t="shared" si="11"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="8">
+        <f t="shared" si="11"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="8">
+        <f t="shared" si="11"/>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="8">
+        <f t="shared" si="11"/>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="8">
+        <f t="shared" si="11"/>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="8">
+        <f t="shared" si="11"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" s="8">
+        <f t="shared" si="11"/>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" s="8">
+        <f t="shared" si="11"/>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" s="8">
+        <f t="shared" si="11"/>
+        <v>763</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" s="8">
+        <f t="shared" si="11"/>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" s="8">
+        <f t="shared" si="11"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="8">
+        <f t="shared" si="11"/>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="8">
+        <f t="shared" si="11"/>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" s="8">
+        <f t="shared" si="11"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" s="8">
+        <f t="shared" si="11"/>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" s="8">
+        <f t="shared" si="11"/>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" s="8">
+        <f t="shared" ref="A773:A836" si="12">A772+1</f>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="8">
+        <f t="shared" si="12"/>
+        <v>772</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="8">
+        <f t="shared" si="12"/>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" s="8">
+        <f t="shared" si="12"/>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" s="8">
+        <f t="shared" si="12"/>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="8">
+        <f t="shared" si="12"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="8">
+        <f t="shared" si="12"/>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="8">
+        <f t="shared" si="12"/>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="8">
+        <f t="shared" si="12"/>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="8">
+        <f t="shared" si="12"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="8">
+        <f t="shared" si="12"/>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" s="8">
+        <f t="shared" si="12"/>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" s="8">
+        <f t="shared" si="12"/>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" s="8">
+        <f t="shared" si="12"/>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" s="8">
+        <f t="shared" si="12"/>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" s="8">
+        <f t="shared" si="12"/>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" s="8">
+        <f t="shared" si="12"/>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" s="8">
+        <f t="shared" si="12"/>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" s="8">
+        <f t="shared" si="12"/>
+        <v>789</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" s="8">
+        <f t="shared" si="12"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" s="8">
+        <f t="shared" si="12"/>
+        <v>791</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" s="8">
+        <f t="shared" si="12"/>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" s="8">
+        <f t="shared" si="12"/>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" s="8">
+        <f t="shared" si="12"/>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" s="8">
+        <f t="shared" si="12"/>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" s="8">
+        <f t="shared" si="12"/>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" s="8">
+        <f t="shared" si="12"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" s="8">
+        <f t="shared" si="12"/>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="8">
+        <f t="shared" si="12"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="8">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="8">
+        <f t="shared" si="12"/>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" s="8">
+        <f t="shared" si="12"/>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" s="8">
+        <f t="shared" si="12"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" s="8">
+        <f t="shared" si="12"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" s="8">
+        <f t="shared" si="12"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" s="8">
+        <f t="shared" si="12"/>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" s="8">
+        <f t="shared" si="12"/>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" s="8">
+        <f t="shared" si="12"/>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" s="8">
+        <f t="shared" si="12"/>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" s="8">
+        <f t="shared" si="12"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" s="8">
+        <f t="shared" si="12"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" s="8">
+        <f t="shared" si="12"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" s="8">
+        <f t="shared" si="12"/>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" s="8">
+        <f t="shared" si="12"/>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" s="8">
+        <f t="shared" si="12"/>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="8">
+        <f t="shared" si="12"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="8">
+        <f t="shared" si="12"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" s="8">
+        <f t="shared" si="12"/>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" s="8">
+        <f t="shared" si="12"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" s="8">
+        <f t="shared" si="12"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" s="8">
+        <f t="shared" si="12"/>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" s="8">
+        <f t="shared" si="12"/>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" s="8">
+        <f t="shared" si="12"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" s="8">
+        <f t="shared" si="12"/>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" s="8">
+        <f t="shared" si="12"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" s="8">
+        <f t="shared" si="12"/>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" s="8">
+        <f t="shared" si="12"/>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" s="8">
+        <f t="shared" si="12"/>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" s="8">
+        <f t="shared" si="12"/>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" s="8">
+        <f t="shared" si="12"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" s="8">
+        <f t="shared" si="12"/>
+        <v>831</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" s="8">
+        <f t="shared" si="12"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" s="8">
+        <f t="shared" si="12"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" s="8">
+        <f t="shared" si="12"/>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" s="8">
+        <f t="shared" ref="A837:A900" si="13">A836+1</f>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" s="8">
+        <f t="shared" si="13"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" s="8">
+        <f t="shared" si="13"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="8">
+        <f t="shared" si="13"/>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="8">
+        <f t="shared" si="13"/>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="8">
+        <f t="shared" si="13"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="8">
+        <f t="shared" si="13"/>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="8">
+        <f t="shared" si="13"/>
+        <v>842</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="8">
+        <f t="shared" si="13"/>
+        <v>843</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="8">
+        <f t="shared" si="13"/>
+        <v>844</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="8">
+        <f t="shared" si="13"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="8">
+        <f t="shared" si="13"/>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="8">
+        <f t="shared" si="13"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="8">
+        <f t="shared" si="13"/>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="8">
+        <f t="shared" si="13"/>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="8">
+        <f t="shared" si="13"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="8">
+        <f t="shared" si="13"/>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="8">
+        <f t="shared" si="13"/>
+        <v>852</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="8">
+        <f t="shared" si="13"/>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="8">
+        <f t="shared" si="13"/>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="8">
+        <f t="shared" si="13"/>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="8">
+        <f t="shared" si="13"/>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="8">
+        <f t="shared" si="13"/>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="8">
+        <f t="shared" si="13"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="8">
+        <f t="shared" si="13"/>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="8">
+        <f t="shared" si="13"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="8">
+        <f t="shared" si="13"/>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="8">
+        <f t="shared" si="13"/>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="8">
+        <f t="shared" si="13"/>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="8">
+        <f t="shared" si="13"/>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="8">
+        <f t="shared" si="13"/>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="8">
+        <f t="shared" si="13"/>
+        <v>866</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="8">
+        <f t="shared" si="13"/>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="8">
+        <f t="shared" si="13"/>
+        <v>868</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="8">
+        <f t="shared" si="13"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="8">
+        <f t="shared" si="13"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="8">
+        <f t="shared" si="13"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="8">
+        <f t="shared" si="13"/>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="8">
+        <f t="shared" si="13"/>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="8">
+        <f t="shared" si="13"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="8">
+        <f t="shared" si="13"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="8">
+        <f t="shared" si="13"/>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="8">
+        <f t="shared" si="13"/>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="8">
+        <f t="shared" si="13"/>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="8">
+        <f t="shared" si="13"/>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="8">
+        <f t="shared" si="13"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="8">
+        <f t="shared" si="13"/>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="8">
+        <f t="shared" si="13"/>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="8">
+        <f t="shared" si="13"/>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="8">
+        <f t="shared" si="13"/>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="8">
+        <f t="shared" si="13"/>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="8">
+        <f t="shared" si="13"/>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="8">
+        <f t="shared" si="13"/>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="8">
+        <f t="shared" si="13"/>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="8">
+        <f t="shared" si="13"/>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="8">
+        <f t="shared" si="13"/>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="8">
+        <f t="shared" si="13"/>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="8">
+        <f t="shared" si="13"/>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="8">
+        <f t="shared" si="13"/>
+        <v>893</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="8">
+        <f t="shared" si="13"/>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" s="8">
+        <f t="shared" si="13"/>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" s="8">
+        <f t="shared" si="13"/>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" s="8">
+        <f t="shared" si="13"/>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" s="8">
+        <f t="shared" si="13"/>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" s="8">
+        <f t="shared" ref="A901:A964" si="14">A900+1</f>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" s="8">
+        <f t="shared" si="14"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" s="8">
+        <f t="shared" si="14"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" s="8">
+        <f t="shared" si="14"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" s="8">
+        <f t="shared" si="14"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" s="8">
+        <f t="shared" si="14"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" s="8">
+        <f t="shared" si="14"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" s="8">
+        <f t="shared" si="14"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" s="8">
+        <f t="shared" si="14"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="8">
+        <f t="shared" si="14"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" s="8">
+        <f t="shared" si="14"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" s="8">
+        <f t="shared" si="14"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" s="8">
+        <f t="shared" si="14"/>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="8">
+        <f t="shared" si="14"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" s="8">
+        <f t="shared" si="14"/>
+        <v>913</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" s="8">
+        <f t="shared" si="14"/>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" s="8">
+        <f t="shared" si="14"/>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" s="8">
+        <f t="shared" si="14"/>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" s="8">
+        <f t="shared" si="14"/>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="8">
+        <f t="shared" si="14"/>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" s="8">
+        <f t="shared" si="14"/>
+        <v>919</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" s="8">
+        <f t="shared" si="14"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" s="8">
+        <f t="shared" si="14"/>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" s="8">
+        <f t="shared" si="14"/>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" s="8">
+        <f t="shared" si="14"/>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="8">
+        <f t="shared" si="14"/>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" s="8">
+        <f t="shared" si="14"/>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="8">
+        <f t="shared" si="14"/>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" s="8">
+        <f t="shared" si="14"/>
+        <v>927</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="8">
+        <f t="shared" si="14"/>
+        <v>928</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" s="8">
+        <f t="shared" si="14"/>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" s="8">
+        <f t="shared" si="14"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" s="8">
+        <f t="shared" si="14"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" s="8">
+        <f t="shared" si="14"/>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" s="8">
+        <f t="shared" si="14"/>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" s="8">
+        <f t="shared" si="14"/>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" s="8">
+        <f t="shared" si="14"/>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" s="8">
+        <f t="shared" si="14"/>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" s="8">
+        <f t="shared" si="14"/>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" s="8">
+        <f t="shared" si="14"/>
+        <v>938</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" s="8">
+        <f t="shared" si="14"/>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" s="8">
+        <f t="shared" si="14"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" s="8">
+        <f t="shared" si="14"/>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" s="8">
+        <f t="shared" si="14"/>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" s="8">
+        <f t="shared" si="14"/>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" s="8">
+        <f t="shared" si="14"/>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" s="8">
+        <f t="shared" si="14"/>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" s="8">
+        <f t="shared" si="14"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" s="8">
+        <f t="shared" si="14"/>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" s="8">
+        <f t="shared" si="14"/>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" s="8">
+        <f t="shared" si="14"/>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" s="8">
+        <f t="shared" si="14"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" s="8">
+        <f t="shared" si="14"/>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" s="8">
+        <f t="shared" si="14"/>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" s="8">
+        <f t="shared" si="14"/>
+        <v>953</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" s="8">
+        <f t="shared" si="14"/>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" s="8">
+        <f t="shared" si="14"/>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" s="8">
+        <f t="shared" si="14"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" s="8">
+        <f t="shared" si="14"/>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" s="8">
+        <f t="shared" si="14"/>
+        <v>958</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" s="8">
+        <f t="shared" si="14"/>
+        <v>959</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" s="8">
+        <f t="shared" si="14"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" s="8">
+        <f t="shared" si="14"/>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" s="8">
+        <f t="shared" si="14"/>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" s="8">
+        <f t="shared" ref="A965:A1028" si="15">A964+1</f>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" s="8">
+        <f t="shared" si="15"/>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" s="8">
+        <f t="shared" si="15"/>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" s="8">
+        <f t="shared" si="15"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" s="8">
+        <f t="shared" si="15"/>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" s="8">
+        <f t="shared" si="15"/>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" s="8">
+        <f t="shared" si="15"/>
+        <v>969</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" s="8">
+        <f t="shared" si="15"/>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" s="8">
+        <f t="shared" si="15"/>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" s="8">
+        <f t="shared" si="15"/>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" s="8">
+        <f t="shared" si="15"/>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" s="8">
+        <f t="shared" si="15"/>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" s="8">
+        <f t="shared" si="15"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" s="8">
+        <f t="shared" si="15"/>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" s="8">
+        <f t="shared" si="15"/>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" s="8">
+        <f t="shared" si="15"/>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" s="8">
+        <f t="shared" si="15"/>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" s="8">
+        <f t="shared" si="15"/>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" s="8">
+        <f t="shared" si="15"/>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" s="8">
+        <f t="shared" si="15"/>
+        <v>982</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" s="8">
+        <f t="shared" si="15"/>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" s="8">
+        <f t="shared" si="15"/>
+        <v>984</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" s="8">
+        <f t="shared" si="15"/>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" s="8">
+        <f t="shared" si="15"/>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" s="8">
+        <f t="shared" si="15"/>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" s="8">
+        <f t="shared" si="15"/>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" s="8">
+        <f t="shared" si="15"/>
+        <v>989</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" s="8">
+        <f t="shared" si="15"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" s="8">
+        <f t="shared" si="15"/>
+        <v>991</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" s="8">
+        <f t="shared" si="15"/>
+        <v>992</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" s="8">
+        <f t="shared" si="15"/>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" s="8">
+        <f t="shared" si="15"/>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" s="8">
+        <f t="shared" si="15"/>
+        <v>995</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" s="8">
+        <f t="shared" si="15"/>
+        <v>996</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" s="8">
+        <f t="shared" si="15"/>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="8">
+        <f t="shared" si="15"/>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="8">
+        <f t="shared" si="15"/>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="8">
+        <f t="shared" si="15"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="8">
+        <f t="shared" si="15"/>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="8">
+        <f t="shared" si="15"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="8">
+        <f t="shared" si="15"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="8">
+        <f t="shared" si="15"/>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="8">
+        <f t="shared" si="15"/>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="8">
+        <f t="shared" si="15"/>
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="8">
+        <f t="shared" si="15"/>
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="8">
+        <f t="shared" si="15"/>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="8">
+        <f t="shared" si="15"/>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="8">
+        <f t="shared" si="15"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="8">
+        <f t="shared" si="15"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="8">
+        <f t="shared" si="15"/>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="8">
+        <f t="shared" si="15"/>
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="8">
+        <f t="shared" si="15"/>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="8">
+        <f t="shared" si="15"/>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="8">
+        <f t="shared" si="15"/>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="8">
+        <f t="shared" si="15"/>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="8">
+        <f t="shared" si="15"/>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="8">
+        <f t="shared" si="15"/>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022" s="8">
+        <f t="shared" si="15"/>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="8">
+        <f t="shared" si="15"/>
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="8">
+        <f t="shared" si="15"/>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="8">
+        <f t="shared" si="15"/>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="8">
+        <f t="shared" si="15"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="8">
+        <f t="shared" si="15"/>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="8">
+        <f t="shared" si="15"/>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="8">
+        <f t="shared" ref="A1029:A1092" si="16">A1028+1</f>
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030" s="8">
+        <f t="shared" si="16"/>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="8">
+        <f t="shared" si="16"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="8">
+        <f t="shared" si="16"/>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="8">
+        <f t="shared" si="16"/>
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="8">
+        <f t="shared" si="16"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="8">
+        <f t="shared" si="16"/>
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="8">
+        <f t="shared" si="16"/>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="8">
+        <f t="shared" si="16"/>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038" s="8">
+        <f t="shared" si="16"/>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="8">
+        <f t="shared" si="16"/>
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1040" s="8">
+        <f t="shared" si="16"/>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="8">
+        <f t="shared" si="16"/>
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1042" s="8">
+        <f t="shared" si="16"/>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="8">
+        <f t="shared" si="16"/>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044" s="8">
+        <f t="shared" si="16"/>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="8">
+        <f t="shared" si="16"/>
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="8">
+        <f t="shared" si="16"/>
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="8">
+        <f t="shared" si="16"/>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048" s="8">
+        <f t="shared" si="16"/>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="8">
+        <f t="shared" si="16"/>
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1050" s="8">
+        <f t="shared" si="16"/>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="8">
+        <f t="shared" si="16"/>
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="8">
+        <f t="shared" si="16"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="8">
+        <f t="shared" si="16"/>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054" s="8">
+        <f t="shared" si="16"/>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="8">
+        <f t="shared" si="16"/>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056" s="8">
+        <f t="shared" si="16"/>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="8">
+        <f t="shared" si="16"/>
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="8">
+        <f t="shared" si="16"/>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="8">
+        <f t="shared" si="16"/>
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="8">
+        <f t="shared" si="16"/>
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="8">
+        <f t="shared" si="16"/>
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1062" s="8">
+        <f t="shared" si="16"/>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="8">
+        <f t="shared" si="16"/>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="8">
+        <f t="shared" si="16"/>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="8">
+        <f t="shared" si="16"/>
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1066" s="8">
+        <f t="shared" si="16"/>
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067" s="8">
+        <f t="shared" si="16"/>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1068" s="8">
+        <f t="shared" si="16"/>
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069" s="8">
+        <f t="shared" si="16"/>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1070" s="8">
+        <f t="shared" si="16"/>
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071" s="8">
+        <f t="shared" si="16"/>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072" s="8">
+        <f t="shared" si="16"/>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" s="8">
+        <f t="shared" si="16"/>
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074" s="8">
+        <f t="shared" si="16"/>
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075" s="8">
+        <f t="shared" si="16"/>
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076" s="8">
+        <f t="shared" si="16"/>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" s="8">
+        <f t="shared" si="16"/>
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078" s="8">
+        <f t="shared" si="16"/>
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079" s="8">
+        <f t="shared" si="16"/>
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080" s="8">
+        <f t="shared" si="16"/>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081" s="8">
+        <f t="shared" si="16"/>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082" s="8">
+        <f t="shared" si="16"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" s="8">
+        <f t="shared" si="16"/>
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084" s="8">
+        <f t="shared" si="16"/>
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085" s="8">
+        <f t="shared" si="16"/>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086" s="8">
+        <f t="shared" si="16"/>
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087" s="8">
+        <f t="shared" si="16"/>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088" s="8">
+        <f t="shared" si="16"/>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089" s="8">
+        <f t="shared" si="16"/>
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090" s="8">
+        <f t="shared" si="16"/>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091" s="8">
+        <f t="shared" si="16"/>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="8">
+        <f t="shared" si="16"/>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="8">
+        <f t="shared" ref="A1093:A1156" si="17">A1092+1</f>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1094" s="8">
+        <f t="shared" si="17"/>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="8">
+        <f t="shared" si="17"/>
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1096" s="8">
+        <f t="shared" si="17"/>
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="8">
+        <f t="shared" si="17"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1098" s="8">
+        <f t="shared" si="17"/>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1099" s="8">
+        <f t="shared" si="17"/>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1100" s="8">
+        <f t="shared" si="17"/>
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1101" s="8">
+        <f t="shared" si="17"/>
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1102" s="8">
+        <f t="shared" si="17"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1103" s="8">
+        <f t="shared" si="17"/>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1104" s="8">
+        <f t="shared" si="17"/>
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="8">
+        <f t="shared" si="17"/>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1106" s="8">
+        <f t="shared" si="17"/>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="8">
+        <f t="shared" si="17"/>
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1108" s="8">
+        <f t="shared" si="17"/>
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="8">
+        <f t="shared" si="17"/>
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="8">
+        <f t="shared" si="17"/>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="8">
+        <f t="shared" si="17"/>
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1112" s="8">
+        <f t="shared" si="17"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="8">
+        <f t="shared" si="17"/>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1114" s="8">
+        <f t="shared" si="17"/>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="8">
+        <f t="shared" si="17"/>
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="8">
+        <f t="shared" si="17"/>
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="8">
+        <f t="shared" si="17"/>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="8">
+        <f t="shared" si="17"/>
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="8">
+        <f t="shared" si="17"/>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="8">
+        <f t="shared" si="17"/>
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="8">
+        <f t="shared" si="17"/>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1122" s="8">
+        <f t="shared" si="17"/>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="8">
+        <f t="shared" si="17"/>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="8">
+        <f t="shared" si="17"/>
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="8">
+        <f t="shared" si="17"/>
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="8">
+        <f t="shared" si="17"/>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="8">
+        <f t="shared" si="17"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="8">
+        <f t="shared" si="17"/>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="8">
+        <f t="shared" si="17"/>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="8">
+        <f t="shared" si="17"/>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="8">
+        <f t="shared" si="17"/>
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1132" s="8">
+        <f t="shared" si="17"/>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="8">
+        <f t="shared" si="17"/>
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1134" s="8">
+        <f t="shared" si="17"/>
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135" s="8">
+        <f t="shared" si="17"/>
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1136" s="8">
+        <f t="shared" si="17"/>
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="8">
+        <f t="shared" si="17"/>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="8">
+        <f t="shared" si="17"/>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="8">
+        <f t="shared" si="17"/>
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="8">
+        <f t="shared" si="17"/>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="8">
+        <f t="shared" si="17"/>
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1142" s="8">
+        <f t="shared" si="17"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143" s="8">
+        <f t="shared" si="17"/>
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1144" s="8">
+        <f t="shared" si="17"/>
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145" s="8">
+        <f t="shared" si="17"/>
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146" s="8">
+        <f t="shared" si="17"/>
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="8">
+        <f t="shared" si="17"/>
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1148" s="8">
+        <f t="shared" si="17"/>
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149" s="8">
+        <f t="shared" si="17"/>
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1150" s="8">
+        <f t="shared" si="17"/>
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151" s="8">
+        <f t="shared" si="17"/>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1152" s="8">
+        <f t="shared" si="17"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153" s="8">
+        <f t="shared" si="17"/>
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1154" s="8">
+        <f t="shared" si="17"/>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155" s="8">
+        <f t="shared" si="17"/>
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1156" s="8">
+        <f t="shared" si="17"/>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1157" s="8">
+        <f t="shared" ref="A1157:A1220" si="18">A1156+1</f>
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1158" s="8">
+        <f t="shared" si="18"/>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1159" s="8">
+        <f t="shared" si="18"/>
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1160" s="8">
+        <f t="shared" si="18"/>
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="8">
+        <f t="shared" si="18"/>
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1162" s="8">
+        <f t="shared" si="18"/>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1163" s="8">
+        <f t="shared" si="18"/>
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1164" s="8">
+        <f t="shared" si="18"/>
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1165" s="8">
+        <f t="shared" si="18"/>
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1166" s="8">
+        <f t="shared" si="18"/>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="8">
+        <f t="shared" si="18"/>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1168" s="8">
+        <f t="shared" si="18"/>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1169" s="8">
+        <f t="shared" si="18"/>
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1170" s="8">
+        <f t="shared" si="18"/>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="8">
+        <f t="shared" si="18"/>
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1172" s="8">
+        <f t="shared" si="18"/>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1173" s="8">
+        <f t="shared" si="18"/>
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1174" s="8">
+        <f t="shared" si="18"/>
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1175" s="8">
+        <f t="shared" si="18"/>
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1176" s="8">
+        <f t="shared" si="18"/>
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1177" s="8">
+        <f t="shared" si="18"/>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1178" s="8">
+        <f t="shared" si="18"/>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1179" s="8">
+        <f t="shared" si="18"/>
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1180" s="8">
+        <f t="shared" si="18"/>
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1181" s="8">
+        <f t="shared" si="18"/>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1182" s="8">
+        <f t="shared" si="18"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1183" s="8">
+        <f t="shared" si="18"/>
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1184" s="8">
+        <f t="shared" si="18"/>
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1185" s="8">
+        <f t="shared" si="18"/>
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1186" s="8">
+        <f t="shared" si="18"/>
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1187" s="8">
+        <f t="shared" si="18"/>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1188" s="8">
+        <f t="shared" si="18"/>
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1189" s="8">
+        <f t="shared" si="18"/>
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1190" s="8">
+        <f t="shared" si="18"/>
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1191" s="8">
+        <f t="shared" si="18"/>
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1192" s="8">
+        <f t="shared" si="18"/>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1193" s="8">
+        <f t="shared" si="18"/>
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1194" s="8">
+        <f t="shared" si="18"/>
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1195" s="8">
+        <f t="shared" si="18"/>
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1196" s="8">
+        <f t="shared" si="18"/>
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1197" s="8">
+        <f t="shared" si="18"/>
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1198" s="8">
+        <f t="shared" si="18"/>
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1199" s="8">
+        <f t="shared" si="18"/>
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="8">
+        <f t="shared" si="18"/>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1201" s="8">
+        <f t="shared" si="18"/>
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1202" s="8">
+        <f t="shared" si="18"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1203" s="8">
+        <f t="shared" si="18"/>
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1204" s="8">
+        <f t="shared" si="18"/>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1205" s="8">
+        <f t="shared" si="18"/>
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1206" s="8">
+        <f t="shared" si="18"/>
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1207" s="8">
+        <f t="shared" si="18"/>
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1208" s="8">
+        <f t="shared" si="18"/>
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1209" s="8">
+        <f t="shared" si="18"/>
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1210" s="8">
+        <f t="shared" si="18"/>
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1211" s="8">
+        <f t="shared" si="18"/>
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1212" s="8">
+        <f t="shared" si="18"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1213" s="8">
+        <f t="shared" si="18"/>
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1214" s="8">
+        <f t="shared" si="18"/>
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1215" s="8">
+        <f t="shared" si="18"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="8">
+        <f t="shared" si="18"/>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1217" s="8">
+        <f t="shared" si="18"/>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1218" s="8">
+        <f t="shared" si="18"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1219" s="8">
+        <f t="shared" si="18"/>
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1220" s="8">
+        <f t="shared" si="18"/>
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1221" s="8">
+        <f t="shared" ref="A1221:A1284" si="19">A1220+1</f>
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1222" s="8">
+        <f t="shared" si="19"/>
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1223" s="8">
+        <f t="shared" si="19"/>
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1224" s="8">
+        <f t="shared" si="19"/>
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1225" s="8">
+        <f t="shared" si="19"/>
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1226" s="8">
+        <f t="shared" si="19"/>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1227" s="8">
+        <f t="shared" si="19"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1228" s="8">
+        <f t="shared" si="19"/>
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1229" s="8">
+        <f t="shared" si="19"/>
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1230" s="8">
+        <f t="shared" si="19"/>
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1231" s="8">
+        <f t="shared" si="19"/>
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1232" s="8">
+        <f t="shared" si="19"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1233" s="8">
+        <f t="shared" si="19"/>
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1234" s="8">
+        <f t="shared" si="19"/>
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1235" s="8">
+        <f t="shared" si="19"/>
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1236" s="8">
+        <f t="shared" si="19"/>
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1237" s="8">
+        <f t="shared" si="19"/>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1238" s="8">
+        <f t="shared" si="19"/>
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1239" s="8">
+        <f t="shared" si="19"/>
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1240" s="8">
+        <f t="shared" si="19"/>
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1241" s="8">
+        <f t="shared" si="19"/>
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1242" s="8">
+        <f t="shared" si="19"/>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1243" s="8">
+        <f t="shared" si="19"/>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1244" s="8">
+        <f t="shared" si="19"/>
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1245" s="8">
+        <f t="shared" si="19"/>
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1246" s="8">
+        <f t="shared" si="19"/>
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1247" s="8">
+        <f t="shared" si="19"/>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1248" s="8">
+        <f t="shared" si="19"/>
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1249" s="8">
+        <f t="shared" si="19"/>
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1250" s="8">
+        <f t="shared" si="19"/>
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1251" s="8">
+        <f t="shared" si="19"/>
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1252" s="8">
+        <f t="shared" si="19"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1253" s="8">
+        <f t="shared" si="19"/>
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1254" s="8">
+        <f t="shared" si="19"/>
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1255" s="8">
+        <f t="shared" si="19"/>
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1256" s="8">
+        <f t="shared" si="19"/>
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1257" s="8">
+        <f t="shared" si="19"/>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1258" s="8">
+        <f t="shared" si="19"/>
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1259" s="8">
+        <f t="shared" si="19"/>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1260" s="8">
+        <f t="shared" si="19"/>
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1261" s="8">
+        <f t="shared" si="19"/>
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1262" s="8">
+        <f t="shared" si="19"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1263" s="8">
+        <f t="shared" si="19"/>
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1264" s="8">
+        <f t="shared" si="19"/>
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1265" s="8">
+        <f t="shared" si="19"/>
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1266" s="8">
+        <f t="shared" si="19"/>
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1267" s="8">
+        <f t="shared" si="19"/>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="8">
+        <f t="shared" si="19"/>
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1269" s="8">
+        <f t="shared" si="19"/>
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1270" s="8">
+        <f t="shared" si="19"/>
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1271" s="8">
+        <f t="shared" si="19"/>
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1272" s="8">
+        <f t="shared" si="19"/>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1273" s="8">
+        <f t="shared" si="19"/>
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1274" s="8">
+        <f t="shared" si="19"/>
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1275" s="8">
+        <f t="shared" si="19"/>
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1276" s="8">
+        <f t="shared" si="19"/>
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1277" s="8">
+        <f t="shared" si="19"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1278" s="8">
+        <f t="shared" si="19"/>
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="8">
+        <f t="shared" si="19"/>
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1280" s="8">
+        <f t="shared" si="19"/>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1281" s="8">
+        <f t="shared" si="19"/>
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1282" s="8">
+        <f t="shared" si="19"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1283" s="8">
+        <f t="shared" si="19"/>
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1284" s="8">
+        <f t="shared" si="19"/>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1285" s="8">
+        <f t="shared" ref="A1285:A1348" si="20">A1284+1</f>
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1286" s="8">
+        <f t="shared" si="20"/>
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1287" s="8">
+        <f t="shared" si="20"/>
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1288" s="8">
+        <f t="shared" si="20"/>
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1289" s="8">
+        <f t="shared" si="20"/>
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1290" s="8">
+        <f t="shared" si="20"/>
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1291" s="8">
+        <f t="shared" si="20"/>
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1292" s="8">
+        <f t="shared" si="20"/>
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1293" s="8">
+        <f t="shared" si="20"/>
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1294" s="8">
+        <f t="shared" si="20"/>
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1295" s="8">
+        <f t="shared" si="20"/>
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="8">
+        <f t="shared" si="20"/>
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1297" s="8">
+        <f t="shared" si="20"/>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1298" s="8">
+        <f t="shared" si="20"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1299" s="8">
+        <f t="shared" si="20"/>
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1300" s="8">
+        <f t="shared" si="20"/>
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1301" s="8">
+        <f t="shared" si="20"/>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1302" s="8">
+        <f t="shared" si="20"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1303" s="8">
+        <f t="shared" si="20"/>
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1304" s="8">
+        <f t="shared" si="20"/>
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1305" s="8">
+        <f t="shared" si="20"/>
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1306" s="8">
+        <f t="shared" si="20"/>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1307" s="8">
+        <f t="shared" si="20"/>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1308" s="8">
+        <f t="shared" si="20"/>
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1309" s="8">
+        <f t="shared" si="20"/>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1310" s="8">
+        <f t="shared" si="20"/>
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1311" s="8">
+        <f t="shared" si="20"/>
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1312" s="8">
+        <f t="shared" si="20"/>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1313" s="8">
+        <f t="shared" si="20"/>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1314" s="8">
+        <f t="shared" si="20"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1315" s="8">
+        <f t="shared" si="20"/>
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1316" s="8">
+        <f t="shared" si="20"/>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1317" s="8">
+        <f t="shared" si="20"/>
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1318" s="8">
+        <f t="shared" si="20"/>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1319" s="8">
+        <f t="shared" si="20"/>
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1320" s="8">
+        <f t="shared" si="20"/>
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1321" s="8">
+        <f t="shared" si="20"/>
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1322" s="8">
+        <f t="shared" si="20"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1323" s="8">
+        <f t="shared" si="20"/>
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1324" s="8">
+        <f t="shared" si="20"/>
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1325" s="8">
+        <f t="shared" si="20"/>
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1326" s="8">
+        <f t="shared" si="20"/>
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1327" s="8">
+        <f t="shared" si="20"/>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1328" s="8">
+        <f t="shared" si="20"/>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1329" s="8">
+        <f t="shared" si="20"/>
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1330" s="8">
+        <f t="shared" si="20"/>
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1331" s="8">
+        <f t="shared" si="20"/>
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1332" s="8">
+        <f t="shared" si="20"/>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1333" s="8">
+        <f t="shared" si="20"/>
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1334" s="8">
+        <f t="shared" si="20"/>
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1335" s="8">
+        <f t="shared" si="20"/>
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1336" s="8">
+        <f t="shared" si="20"/>
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1337" s="8">
+        <f t="shared" si="20"/>
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1338" s="8">
+        <f t="shared" si="20"/>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1339" s="8">
+        <f t="shared" si="20"/>
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1340" s="8">
+        <f t="shared" si="20"/>
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1341" s="8">
+        <f t="shared" si="20"/>
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1342" s="8">
+        <f t="shared" si="20"/>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1343" s="8">
+        <f t="shared" si="20"/>
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1344" s="8">
+        <f t="shared" si="20"/>
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1345" s="8">
+        <f t="shared" si="20"/>
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1346" s="8">
+        <f t="shared" si="20"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1347" s="8">
+        <f t="shared" si="20"/>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1348" s="8">
+        <f t="shared" si="20"/>
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1349" s="8">
+        <f t="shared" ref="A1349:A1376" si="21">A1348+1</f>
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1350" s="8">
+        <f t="shared" si="21"/>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1351" s="8">
+        <f t="shared" si="21"/>
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1352" s="8">
+        <f t="shared" si="21"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1353" s="8">
+        <f t="shared" si="21"/>
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1354" s="8">
+        <f t="shared" si="21"/>
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1355" s="8">
+        <f t="shared" si="21"/>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1356" s="8">
+        <f t="shared" si="21"/>
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1357" s="8">
+        <f t="shared" si="21"/>
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1358" s="8">
+        <f t="shared" si="21"/>
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1359" s="8">
+        <f t="shared" si="21"/>
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1360" s="8">
+        <f t="shared" si="21"/>
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1361" s="8">
+        <f t="shared" si="21"/>
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1362" s="8">
+        <f t="shared" si="21"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1363" s="8">
+        <f t="shared" si="21"/>
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1364" s="8">
+        <f t="shared" si="21"/>
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1365" s="8">
+        <f t="shared" si="21"/>
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1366" s="8">
+        <f t="shared" si="21"/>
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1367" s="8">
+        <f t="shared" si="21"/>
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1368" s="8">
+        <f t="shared" si="21"/>
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1369" s="8">
+        <f t="shared" si="21"/>
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1370" s="8">
+        <f t="shared" si="21"/>
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1371" s="8">
+        <f t="shared" si="21"/>
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1372" s="8">
+        <f t="shared" si="21"/>
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1373" s="8">
+        <f t="shared" si="21"/>
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1374" s="8">
+        <f t="shared" si="21"/>
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1375" s="8">
+        <f t="shared" si="21"/>
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1376" s="8">
+        <f t="shared" si="21"/>
+        <v>1374</v>
       </c>
     </row>
   </sheetData>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -195,15 +195,6 @@
     <t>Datacontrole collectie</t>
   </si>
   <si>
-    <t>Collecties</t>
-  </si>
-  <si>
-    <t>Datacontrole waardelijsten</t>
-  </si>
-  <si>
-    <t>Waardelijsten</t>
-  </si>
-  <si>
     <t>Concepten POST Turtle</t>
   </si>
   <si>
@@ -278,9 +269,6 @@
   </si>
   <si>
     <t>Concepten/Regressietest/ttl/Datacontrole collecties.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole waardelijsten.ttl</t>
   </si>
   <si>
     <t>Concepten/Regressietest/ttl/Uploadcontrole.ttl</t>
@@ -371,11 +359,24 @@
 - Een rij met als header 'Is specialisatie van' en als waarde een link met als url /id/concept/GeneriekBeest en als label 'Generiek beest'</t>
   </si>
   <si>
-    <t>GCO-293</t>
-  </si>
-  <si>
     <t>Op de pagina is o.a. een tabel te zien met als header 'Generiek beest' en o.a. de volgende rij:
 - Is ongeveer hetzelfde als | Monster</t>
+  </si>
+  <si>
+    <t>Weergavepagina concepten</t>
+  </si>
+  <si>
+    <t>Grafische weergave</t>
+  </si>
+  <si>
+    <t>id/concept/GeneriekBeest</t>
+  </si>
+  <si>
+    <t>Pagina wordt bekeken</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabel te zien met als header 'Generiek beest' en o.a. de volgende rij:
+- Lid van | (link naar /id/collection/StandaardBeesten met label 'Standaard beesten')</t>
   </si>
 </sst>
 </file>
@@ -895,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>13</v>
@@ -1006,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
@@ -1045,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>46</v>
@@ -1072,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -1114,7 +1115,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,7 +1148,7 @@
         <v>50</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -1180,7 +1181,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1192,7 +1193,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -1201,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -1222,7 +1223,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -1231,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
@@ -1240,7 +1241,7 @@
         <v>49</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>21</v>
@@ -1264,7 +1265,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
@@ -1285,16 +1286,16 @@
         <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
@@ -1303,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1315,16 +1316,16 @@
         <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -1333,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="255" x14ac:dyDescent="0.25">
@@ -1342,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>34</v>
@@ -1351,10 +1352,10 @@
         <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -1363,7 +1364,7 @@
         <v>45</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>25</v>
@@ -1375,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>43</v>
@@ -1384,22 +1385,22 @@
         <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1408,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>35</v>
@@ -1417,10 +1418,10 @@
         <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>19</v>
@@ -1429,7 +1430,7 @@
         <v>45</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>26</v>
@@ -1441,7 +1442,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>37</v>
@@ -1450,10 +1451,10 @@
         <v>27</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
@@ -1462,19 +1463,19 @@
         <v>45</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>52</v>
@@ -1483,10 +1484,10 @@
         <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>19</v>
@@ -1495,10 +1496,10 @@
         <v>45</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1507,19 +1508,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>19</v>
@@ -1527,13 +1525,16 @@
       <c r="H20" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="I20" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="J20" s="10" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1546,10 +1547,10 @@
         <v>27</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>19</v>
@@ -1570,19 +1571,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>13</v>
@@ -1600,19 +1601,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>
@@ -1633,19 +1634,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="F24" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -1654,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1663,19 +1664,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="F25" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
@@ -1684,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1693,28 +1694,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>16</v>
@@ -1726,19 +1727,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>13</v>
@@ -1756,31 +1757,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1789,31 +1790,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="J29" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1822,19 +1823,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
@@ -1852,19 +1853,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>13</v>
@@ -1885,19 +1886,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -1906,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1915,19 +1916,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>13</v>
@@ -1936,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1945,28 +1946,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>16</v>
@@ -1978,19 +1979,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>13</v>
@@ -2008,31 +2009,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2041,31 +2042,31 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="125">
   <si>
     <t>US</t>
   </si>
@@ -92,24 +92,6 @@
   </si>
   <si>
     <t>Pagina /id/concept/GeneriekBeest wordt bekeken</t>
-  </si>
-  <si>
-    <t>Op de pagina is o.a. het volgende te zien:
-- Tabelweergave met als header 'Generiek beest'
-- Grafische weergave (leeg)
-In de tabel staan de volgende rijen (header | waarde):
-- Naam | GeneriekBeest
-- Startdatum versie | (niet leeg)
-- Laatste activiteit | (link)
-- Notitie | Notitie
-- Uitleg | Uitleg
-- Definitie | Definitie
-- Toelichting | Toelichting
-- Domein | (link)
-- Synoniemen | (link)</t>
-  </si>
-  <si>
-    <t>Relaties</t>
   </si>
   <si>
     <t>GCO-294</t>
@@ -366,9 +348,6 @@
     <t>Weergavepagina concepten</t>
   </si>
   <si>
-    <t>Grafische weergave</t>
-  </si>
-  <si>
     <t>id/concept/GeneriekBeest</t>
   </si>
   <si>
@@ -377,6 +356,100 @@
   <si>
     <t>Op de pagina is o.a. een tabel te zien met als header 'Generiek beest' en o.a. de volgende rij:
 - Lid van | (link naar /id/collection/StandaardBeesten met label 'Standaard beesten')</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. het volgende te zien:
+- Tabelweergave met als header 'Generiek beest'
+In de tabel staan o.a. de volgende rijen (header | waarde):
+- Naam | GeneriekBeest
+- Notitie | Notitie
+- Uitleg | Uitleg
+- Definitie | Definitie
+- Toelichting | Toelichting
+- Domein | (link naar /id/concept/BeestDomein)
+- Synoniemen | Generiek dier</t>
+  </si>
+  <si>
+    <t>Links concepten</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. het volgende te zien:
+- Tabelweergave met als header 'Generiek beest'
+In de tabel staan de volgende rijen (header | waarde):
+- Is generalisatie van | (link naar id/concept/SpecifiekBeest met label "Specifiek beest")
+- Heeft betrekking op | (link naar id/concept/AnderBeest met label "Ander beest")
+- Bestaat uit | (link naar id/concept/Lijf met label "Lijf")
+- Is gerealiseerd in | (link naar id/concept/Focusbeest met label "Focusbeest")
+- Is hetzelfde als | (link naar id/concept/HetzelfdeBeest met label "Hetzelfde beest")
+- Zie ook (in ander schema) | (link naar id/concept/GerelateerdBeest met label "Gerelateerd beest")
+- Is breder dan (in ander schema) | (link naar id/concept/BrederBeest met label "Breder beest")
+- Is enger dan (in ander schema) | (link naar id/concept/EngerBeest met label "Enger beest")</t>
+  </si>
+  <si>
+    <t>Op de volgende link geklikt wordt:
+- id/concept/SpecifiekBeest</t>
+  </si>
+  <si>
+    <t>De weergavepagina voor SpecifiekBeest wordt geopend in hetzelfde scherm.</t>
+  </si>
+  <si>
+    <t>id/concept/NogSpecifiekerBeest</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabel te zien met als header 'Nog specifieker beest' en o.a. de volgende rij:
+- Is specialisatie van | (link naar id/concept/SpecifiekBeest met label "Specifiek beest")</t>
+  </si>
+  <si>
+    <t>id/concept/Kop</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabel te zien met als header 'Kop' en o.a. de volgende rij:
+- Is onderdeel van | (link naar id/concept/GeneriekBeest met label "Generiek beest")</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een grafische weergave te zien met als header 'Generiek beest'. Deze grafische weergave bevat een legenda en de volgende elementen:
+- Generiek beest
+- Specifiek beest
+- Kop
+- Lijf
+- Ander beest</t>
+  </si>
+  <si>
+    <t>Grafische weergave relaties</t>
+  </si>
+  <si>
+    <t>Grafische weergave collecties</t>
+  </si>
+  <si>
+    <t>Grafische weergave toeleidingsbegrip</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een grafische weergave te zien met als header 'Generiek beest'. Deze grafische weergave bevat een legenda en de volgende elementen:
+- Generiek beest
+- Standaard beesten</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een grafische weergave te zien met als header 'Generiek beest'. Deze grafische weergave bevat een legenda en de volgende elementen:
+- Generiek beest
+- Monster</t>
+  </si>
+  <si>
+    <t>Grafische weergave bron</t>
+  </si>
+  <si>
+    <t>Datacontrole bron</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole bron.ttl</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een tabel te zien met als header 'Generiek beest' en o.a. de volgende rij:
+- Bron | (link naar /id/concept/Bron met label 'Bron')</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. een grafische weergave te zien met als header 'Generiek beest'. Deze grafische weergave bevat een legenda en de volgende elementen:
+- Generiek beest
+- Bron</t>
   </si>
 </sst>
 </file>
@@ -896,8 +969,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,13 +984,14 @@
     <col min="5" max="5" width="35.7109375" style="7" customWidth="1"/>
     <col min="6" max="7" width="35.7109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" style="9" customWidth="1"/>
-    <col min="9" max="10" width="35.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="71.42578125" style="10" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -937,10 +1014,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -965,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -977,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>13</v>
@@ -995,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1007,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>14</v>
@@ -1028,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1040,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>16</v>
@@ -1061,10 +1138,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1073,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -1091,10 +1168,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1103,19 +1180,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,10 +1201,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1136,19 +1213,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -1157,10 +1234,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1169,19 +1246,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1190,10 +1267,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -1202,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -1220,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -1232,16 +1309,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>21</v>
@@ -1253,10 +1330,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -1265,7 +1342,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
@@ -1283,19 +1360,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
@@ -1304,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1313,19 +1390,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -1334,40 +1411,40 @@
         <v>10</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -1376,64 +1453,64 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="273" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1442,379 +1519,391 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>104</v>
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="I29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1823,82 +1912,82 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="F30" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="H30" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="I30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="I31" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -1907,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1916,91 +2005,94 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="H33" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="I33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="I34" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="H35" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="I35" s="10" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2009,106 +2101,283 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="I37" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -10104,7 +10373,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D2:J2"/>
+  <autoFilter ref="A2:J2"/>
   <mergeCells count="2">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:D1"/>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="144">
   <si>
     <t>US</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder skos:prefLabel bevatten."</t>
   </si>
   <si>
-    <t>Testbestand "Datacontrole attribuut.ttl" is geupload via /container/concepten-post-ttl</t>
-  </si>
-  <si>
     <t>Testbestand "Datacontrole attributen.xml" is geupload via /container/concepten-post-xml</t>
   </si>
   <si>
@@ -262,18 +259,6 @@
     <t>Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
   </si>
   <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
-Concepten/Regressietest/ttl/Datacontrole wijziging.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
-Concepten/Regressietest/ttl/Validatie label.ttl</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/ttl/Datacontrole attribuut.ttl
-Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
-  </si>
-  <si>
     <t>Concepten POST json-ld</t>
   </si>
   <si>
@@ -295,25 +280,10 @@
     <t>container/concepten-put-jsonld</t>
   </si>
   <si>
-    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
-Concepten/Regressietest/jsonld/Datacontrole wijziging.jsonld</t>
-  </si>
-  <si>
-    <t>Testbestand "Datacontrole attribuut.jsonld" is geupload via /container/concepten-post-jsonld</t>
-  </si>
-  <si>
     <t>Testbestand "Datacontrole wijziging.jsonld" wordt geupload</t>
   </si>
   <si>
-    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
-Concepten/Regressietest/jsonld/Validatie label.jsonld</t>
-  </si>
-  <si>
     <t>Testbestand "Validatie label.jsonld" wordt geupload</t>
-  </si>
-  <si>
-    <t>Concepten/Regressietest/jsonld/Datacontrole attribuut.jsonld
-Concepten/Regressietest/jsonld/Validatie prefLabel.jsonld</t>
   </si>
   <si>
     <t>Testbestand "Validatie prefLabel.jsonld" wordt geupload</t>
@@ -450,6 +420,96 @@
     <t>Op de pagina is o.a. een grafische weergave te zien met als header 'Generiek beest'. Deze grafische weergave bevat een legenda en de volgende elementen:
 - Generiek beest
 - Bron</t>
+  </si>
+  <si>
+    <t>Concepten POST xls</t>
+  </si>
+  <si>
+    <t>Concepten PUT xls</t>
+  </si>
+  <si>
+    <t>container/concepten-post-xls</t>
+  </si>
+  <si>
+    <t>container/concepten-put-xls</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole wijziging.xlsx" wordt geupload</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/xls/Uploadcontrole.xlsx</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie label.xlsx" wordt geupload</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie prefLabel.xlsx" wordt geupload</t>
+  </si>
+  <si>
+    <t>Upload Excel</t>
+  </si>
+  <si>
+    <t>container/excelupdate</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/xls/Validatie label.xlsx</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/xls/Validatie prefLabel.xlsx</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/xls/Uploadcontrole.xslx</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/xsl/Validatie label.xslx</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/xsl/Validatie prefLabel.xlsx</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl
+Concepten/Regressietest/ttl/Datacontrole wijziging.ttl</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attributen.ttl" is geupload via /container/concepten-post-ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl
+Concepten/Regressietest/ttl/Validatie label.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl
+Concepten/Regressietest/ttl/Validatie prefLabel.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attributen.jsonld
+Concepten/Regressietest/jsonld/Datacontrole wijziging.jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attributen.jsonld" is geupload via /container/concepten-post-jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attributen.jsonld
+Concepten/Regressietest/jsonld/Validatie label.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attributen.jsonld
+Concepten/Regressietest/jsonld/Validatie prefLabel.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/xls/Datacontrole attributen.xlsx
+Concepten/Regressietest/xls/Datacontrole wijziging.xlsx</t>
+  </si>
+  <si>
+    <t>Testbestand "Datacontrole attributen.xlsx" is geupload via /container/concepten-post-xls</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/xls/Datacontrole attributen.xlsx
+Concepten/Regressietest/xls/Validatie label.xlsx</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/xls/Datacontrole attributen.xlsx
+Concepten/Regressietest/xls/Validatie prefLabel.xlsx</t>
   </si>
 </sst>
 </file>
@@ -970,10 +1030,10 @@
   <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>44</v>
@@ -1192,7 +1252,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,10 +1285,10 @@
         <v>48</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1258,7 +1318,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1342,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
@@ -1372,7 +1432,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
@@ -1402,7 +1462,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -1420,7 +1480,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>32</v>
@@ -1429,10 +1489,10 @@
         <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -1441,19 +1501,19 @@
         <v>43</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>41</v>
@@ -1462,22 +1522,22 @@
         <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="273" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>33</v>
@@ -1495,10 +1555,10 @@
         <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>19</v>
@@ -1507,10 +1567,10 @@
         <v>43</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1519,7 +1579,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>33</v>
@@ -1528,10 +1588,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
@@ -1540,10 +1600,10 @@
         <v>43</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1552,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>33</v>
@@ -1561,10 +1621,10 @@
         <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>19</v>
@@ -1573,10 +1633,10 @@
         <v>43</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1585,7 +1645,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>35</v>
@@ -1594,10 +1654,10 @@
         <v>25</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>19</v>
@@ -1606,10 +1666,10 @@
         <v>43</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1618,7 +1678,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>50</v>
@@ -1627,10 +1687,10 @@
         <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>19</v>
@@ -1639,10 +1699,10 @@
         <v>43</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1651,19 +1711,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
@@ -1672,10 +1732,10 @@
         <v>43</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1684,19 +1744,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>19</v>
@@ -1705,10 +1765,10 @@
         <v>43</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1717,19 +1777,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>19</v>
@@ -1738,10 +1798,10 @@
         <v>43</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1750,19 +1810,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>19</v>
@@ -1771,10 +1831,10 @@
         <v>43</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1783,19 +1843,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>19</v>
@@ -1804,10 +1864,10 @@
         <v>43</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1816,19 +1876,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>19</v>
@@ -1837,10 +1897,10 @@
         <v>43</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1861,7 +1921,7 @@
         <v>53</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>19</v>
@@ -1894,7 +1954,7 @@
         <v>54</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>13</v>
@@ -1924,7 +1984,7 @@
         <v>54</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
@@ -1957,7 +2017,7 @@
         <v>54</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>13</v>
@@ -1987,7 +2047,7 @@
         <v>54</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -2017,13 +2077,13 @@
         <v>57</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>58</v>
@@ -2050,7 +2110,7 @@
         <v>57</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2080,16 +2140,16 @@
         <v>57</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>66</v>
@@ -2113,16 +2173,16 @@
         <v>57</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>67</v>
@@ -2134,7 +2194,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>40</v>
@@ -2143,10 +2203,10 @@
         <v>52</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>13</v>
@@ -2164,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>31</v>
@@ -2173,10 +2233,10 @@
         <v>52</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>13</v>
@@ -2197,7 +2257,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>63</v>
@@ -2206,10 +2266,10 @@
         <v>65</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>13</v>
@@ -2227,7 +2287,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>64</v>
@@ -2236,10 +2296,10 @@
         <v>65</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -2257,7 +2317,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>40</v>
@@ -2266,19 +2326,19 @@
         <v>52</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>16</v>
@@ -2290,7 +2350,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -2299,10 +2359,10 @@
         <v>52</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -2320,7 +2380,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>63</v>
@@ -2329,19 +2389,19 @@
         <v>65</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>66</v>
@@ -2353,7 +2413,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>64</v>
@@ -2362,139 +2422,415 @@
         <v>65</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <f t="shared" si="0"/>
         <v>62</v>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="168">
   <si>
     <t>US</t>
   </si>
@@ -510,6 +510,90 @@
   <si>
     <t>Concepten/Regressietest/xls/Datacontrole attributen.xlsx
 Concepten/Regressietest/xls/Validatie prefLabel.xlsx</t>
+  </si>
+  <si>
+    <t>Upload controle</t>
+  </si>
+  <si>
+    <t>GCO-540</t>
+  </si>
+  <si>
+    <t>container/datasetupload</t>
+  </si>
+  <si>
+    <t>DSO catalogus T.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testbestand wordt geupload </t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. het volgende te zien:
+- Tabelweergave met als header 'Test Catalogus'
+In de tabel staan o.a. de volgende rijen (header | waarde):
+- Titel | Test Catalogus
+- Beschrijving | Een Catalogus voor Testdoeleinden</t>
+  </si>
+  <si>
+    <t>GCO-526</t>
+  </si>
+  <si>
+    <t>Dataset T.ttl</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. het volgende te zien:
+- Tabelweergave
+In de tabel staat o.a. de volgende rij (header | waarde):
+- dataset | Testdataset
+- uitleg | Een Dataset voor Testdoeleinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronisatie Controle </t>
+  </si>
+  <si>
+    <t>TestConcepten.ttl</t>
+  </si>
+  <si>
+    <t>id/catalogus/Test</t>
+  </si>
+  <si>
+    <t>Upload Catalogusinformatie</t>
+  </si>
+  <si>
+    <t>Weergavepagina Catalogus</t>
+  </si>
+  <si>
+    <t>Upload datasetinformatie</t>
+  </si>
+  <si>
+    <t>Overzichtspagina datasets</t>
+  </si>
+  <si>
+    <t>Weergavepagina datasets</t>
+  </si>
+  <si>
+    <t>query/overzichtdatasets</t>
+  </si>
+  <si>
+    <t>id/dataset/Testdataset</t>
+  </si>
+  <si>
+    <t>Op de pagina is o.a. het volgende te zien:
+- Tabelweergave met als titel "Testdataset";
+Daarnaast is er zichtbaar:
+- Titel | Testdataset
+- Beschrijving | Dataset voor testdoeleinde</t>
+  </si>
+  <si>
+    <t>update/syncttlupload</t>
+  </si>
+  <si>
+    <t>Op de pagina is een uploadcontainer zichtbaar waar uit een selectieformulier de Testdataset geselecteerd kan worden</t>
+  </si>
+  <si>
+    <t>Sync Turtleupload</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1114,10 @@
   <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2787,11 +2871,65 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2799,23 +2937,131 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="172">
   <si>
     <t>US</t>
   </si>
@@ -221,12 +221,6 @@
   </si>
   <si>
     <t>GCO-466</t>
-  </si>
-  <si>
-    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder rdfs:label bevatten."</t>
-  </si>
-  <si>
-    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder skos:prefLabel bevatten."</t>
   </si>
   <si>
     <t>Testbestand "Datacontrole attributen.xml" is geupload via /container/concepten-post-xml</t>
@@ -594,6 +588,24 @@
   </si>
   <si>
     <t>Sync Turtleupload</t>
+  </si>
+  <si>
+    <t>Validatie leeg label</t>
+  </si>
+  <si>
+    <t>Validatie leeg prefLabel</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie leeg label.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie leeg prefLabel.ttl</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder of met leeg rdfs:label bevatten."</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder of met leeg skos:prefLabel bevatten."</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1126,10 @@
   <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>44</v>
@@ -1336,7 +1348,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,7 +1381,7 @@
         <v>48</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1402,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1486,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
@@ -1498,7 +1510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1516,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
@@ -1525,10 +1537,10 @@
         <v>10</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1546,7 +1558,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -1555,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="225" x14ac:dyDescent="0.25">
@@ -1564,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>32</v>
@@ -1573,10 +1585,10 @@
         <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
@@ -1585,10 +1597,10 @@
         <v>43</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1597,7 +1609,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>41</v>
@@ -1606,22 +1618,22 @@
         <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="273" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>33</v>
@@ -1639,10 +1651,10 @@
         <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>19</v>
@@ -1651,10 +1663,10 @@
         <v>43</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1663,7 +1675,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>33</v>
@@ -1672,10 +1684,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
@@ -1684,10 +1696,10 @@
         <v>43</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1696,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>33</v>
@@ -1705,10 +1717,10 @@
         <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>19</v>
@@ -1717,10 +1729,10 @@
         <v>43</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1729,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>35</v>
@@ -1738,10 +1750,10 @@
         <v>25</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>19</v>
@@ -1750,10 +1762,10 @@
         <v>43</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1762,7 +1774,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>50</v>
@@ -1771,10 +1783,10 @@
         <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>19</v>
@@ -1783,10 +1795,10 @@
         <v>43</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1795,19 +1807,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
@@ -1816,10 +1828,10 @@
         <v>43</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1828,19 +1840,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>19</v>
@@ -1849,10 +1861,10 @@
         <v>43</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1861,19 +1873,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>19</v>
@@ -1882,10 +1894,10 @@
         <v>43</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1894,19 +1906,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>19</v>
@@ -1915,10 +1927,10 @@
         <v>43</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1927,19 +1939,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>19</v>
@@ -1948,10 +1960,10 @@
         <v>43</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1960,19 +1972,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>19</v>
@@ -1981,10 +1993,10 @@
         <v>43</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2005,7 +2017,7 @@
         <v>53</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>19</v>
@@ -2038,7 +2050,7 @@
         <v>54</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>13</v>
@@ -2068,7 +2080,7 @@
         <v>54</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
@@ -2101,7 +2113,7 @@
         <v>54</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>13</v>
@@ -2110,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2131,7 +2143,7 @@
         <v>54</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -2140,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2161,13 +2173,13 @@
         <v>57</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>58</v>
@@ -2194,7 +2206,7 @@
         <v>57</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2224,19 +2236,19 @@
         <v>57</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2257,19 +2269,19 @@
         <v>57</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2278,7 +2290,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>40</v>
@@ -2287,10 +2299,10 @@
         <v>52</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>13</v>
@@ -2308,7 +2320,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>31</v>
@@ -2317,10 +2329,10 @@
         <v>52</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>13</v>
@@ -2341,7 +2353,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>63</v>
@@ -2350,10 +2362,10 @@
         <v>65</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>13</v>
@@ -2362,7 +2374,7 @@
         <v>10</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2371,7 +2383,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>64</v>
@@ -2380,10 +2392,10 @@
         <v>65</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -2392,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2401,7 +2413,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>40</v>
@@ -2410,19 +2422,19 @@
         <v>52</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>16</v>
@@ -2434,7 +2446,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>31</v>
@@ -2443,10 +2455,10 @@
         <v>52</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -2464,7 +2476,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>63</v>
@@ -2473,22 +2485,22 @@
         <v>65</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2497,7 +2509,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>64</v>
@@ -2506,22 +2518,22 @@
         <v>65</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2530,7 +2542,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>40</v>
@@ -2539,10 +2551,10 @@
         <v>52</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>13</v>
@@ -2560,7 +2572,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>31</v>
@@ -2569,10 +2581,10 @@
         <v>52</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
@@ -2593,7 +2605,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>63</v>
@@ -2602,10 +2614,10 @@
         <v>65</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>13</v>
@@ -2614,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2623,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>64</v>
@@ -2632,10 +2644,10 @@
         <v>65</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -2644,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2653,7 +2665,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>40</v>
@@ -2662,19 +2674,19 @@
         <v>52</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>16</v>
@@ -2686,7 +2698,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>31</v>
@@ -2695,10 +2707,10 @@
         <v>52</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -2716,7 +2728,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>63</v>
@@ -2725,22 +2737,22 @@
         <v>65</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2749,7 +2761,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>64</v>
@@ -2758,22 +2770,22 @@
         <v>65</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2782,7 +2794,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>40</v>
@@ -2791,10 +2803,10 @@
         <v>22</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>13</v>
@@ -2812,7 +2824,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>63</v>
@@ -2821,10 +2833,10 @@
         <v>65</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>13</v>
@@ -2833,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2842,7 +2854,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>64</v>
@@ -2851,10 +2863,10 @@
         <v>65</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>13</v>
@@ -2863,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2872,28 +2884,28 @@
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>16</v>
@@ -2905,19 +2917,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>13</v>
@@ -2926,10 +2938,10 @@
         <v>43</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2938,25 +2950,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="F58" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>10</v>
@@ -2971,19 +2983,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>13</v>
@@ -2992,10 +3004,10 @@
         <v>43</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -3004,19 +3016,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>13</v>
@@ -3025,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3037,19 +3049,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>13</v>
@@ -3058,22 +3070,70 @@
         <v>43</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="187">
   <si>
     <t>US</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>GCO-391</t>
-  </si>
-  <si>
-    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder term bevatten."</t>
   </si>
   <si>
     <t>GCO-4</t>
@@ -606,6 +603,59 @@
   </si>
   <si>
     <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder of met leeg skos:prefLabel bevatten."</t>
+  </si>
+  <si>
+    <t>Container geeft als foutmelding "De upload mag geen concepten of collecties zonder of met lege term bevatten."</t>
+  </si>
+  <si>
+    <t>Validatie lege term</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Validatie lege term.xml</t>
+  </si>
+  <si>
+    <t>Omgevingsdocumenten/Regressietest/Datacontrole attributen.xml
+Omgevingsdocumenten/Regressietest/Validatie lege term.xml</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie lege term.xml" wordt geupload</t>
+  </si>
+  <si>
+    <t>GCO-555</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl
+Concepten/Regressietest/ttl/Validatie leeg label.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl
+Concepten/Regressietest/ttl/Validatie leeg prefLabel.ttl</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie leeg label.ttl" wordt geupload</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie leeg prefLabel.ttl" wordt geupload</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Validatie leeg label.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Validatie leeg prefLabel.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attributen.jsonld
+Concepten/Regressietest/jsonld/Validatie leeg label.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/jsonld/Datacontrole attributen.jsonld
+Concepten/Regressietest/jsonld/Validatie leeg prefLabel.jsonld</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie leeg label.jsonld" wordt geupload</t>
+  </si>
+  <si>
+    <t>Testbestand "Validatie leeg prefLabel.jsonld" wordt geupload</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1176,10 @@
   <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1197,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1170,10 +1220,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1198,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1210,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>13</v>
@@ -1228,10 +1278,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1240,13 +1290,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>14</v>
@@ -1261,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1273,16 +1323,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>16</v>
@@ -1294,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -1306,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -1324,10 +1374,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1336,19 +1386,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,10 +1407,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1369,19 +1419,19 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1390,10 +1440,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1402,31 +1452,31 @@
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -1435,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -1444,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1453,10 +1503,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -1465,19 +1515,19 @@
         <v>11</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1486,19 +1536,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
@@ -1516,19 +1566,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
@@ -1537,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1546,19 +1596,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -1567,40 +1617,40 @@
         <v>10</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1609,31 +1659,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="273" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,31 +1692,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1675,31 +1725,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1708,31 +1758,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1741,31 +1791,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1774,31 +1824,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1807,31 +1857,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1840,31 +1890,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1873,31 +1923,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1906,31 +1956,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1939,31 +1989,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F26" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1972,31 +2022,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2005,31 +2055,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2038,19 +2088,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>13</v>
@@ -2068,25 +2118,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>14</v>
@@ -2101,19 +2151,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>13</v>
@@ -2122,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2131,19 +2181,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -2152,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2161,28 +2211,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="F33" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>16</v>
@@ -2194,19 +2244,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="F34" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -2224,31 +2274,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="F35" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2257,31 +2307,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="F36" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2290,19 +2340,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>13</v>
@@ -2320,25 +2370,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>14</v>
@@ -2353,19 +2403,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>13</v>
@@ -2374,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2383,19 +2433,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E40" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -2404,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2413,28 +2463,28 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>16</v>
@@ -2446,19 +2496,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>13</v>
@@ -2476,31 +2526,31 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2509,31 +2559,31 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E44" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2542,19 +2592,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>13</v>
@@ -2572,25 +2622,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>14</v>
@@ -2605,19 +2655,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>13</v>
@@ -2626,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2635,19 +2685,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>13</v>
@@ -2656,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2665,28 +2715,28 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>16</v>
@@ -2698,19 +2748,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>13</v>
@@ -2728,31 +2778,31 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2761,31 +2811,31 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E52" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2794,19 +2844,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F53" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>13</v>
@@ -2824,19 +2874,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F54" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>13</v>
@@ -2845,7 +2895,7 @@
         <v>10</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2854,19 +2904,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F55" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>13</v>
@@ -2875,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2884,28 +2934,28 @@
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>16</v>
@@ -2917,31 +2967,31 @@
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2950,25 +3000,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>10</v>
@@ -2983,31 +3033,31 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -3016,31 +3066,31 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3049,31 +3099,31 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3082,19 +3132,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>13</v>
@@ -3103,7 +3153,7 @@
         <v>10</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3112,19 +3162,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>13</v>
@@ -3133,106 +3183,361 @@
         <v>10</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <f t="shared" si="1"/>
         <v>78</v>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="194">
   <si>
     <t>US</t>
   </si>
@@ -40,9 +40,6 @@
     <t>container/concepten-post-xml</t>
   </si>
   <si>
-    <t>GCO-450</t>
-  </si>
-  <si>
     <t>Testbestand(en)</t>
   </si>
   <si>
@@ -73,25 +70,13 @@
     <t>Container geeft als foutmelding "De upload bevat concepten die nog niet bestaan"</t>
   </si>
   <si>
-    <t>GCO-382</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>GCO-391</t>
-  </si>
-  <si>
-    <t>GCO-4</t>
-  </si>
-  <si>
     <t>container/ttlupdate</t>
   </si>
   <si>
     <t>Pagina /id/concept/GeneriekBeest wordt bekeken</t>
-  </si>
-  <si>
-    <t>GCO-294</t>
   </si>
   <si>
     <t>Pagina /query/search?term=monster wordt bekeken</t>
@@ -177,9 +162,6 @@
     <t>Concepten POST Turtle</t>
   </si>
   <si>
-    <t>GCO-470</t>
-  </si>
-  <si>
     <t>query/search</t>
   </si>
   <si>
@@ -215,9 +197,6 @@
   </si>
   <si>
     <t>Validatie prefLabel</t>
-  </si>
-  <si>
-    <t>GCO-466</t>
   </si>
   <si>
     <t>Testbestand "Datacontrole attributen.xml" is geupload via /container/concepten-post-xml</t>
@@ -506,9 +485,6 @@
     <t>Upload controle</t>
   </si>
   <si>
-    <t>GCO-540</t>
-  </si>
-  <si>
     <t>container/datasetupload</t>
   </si>
   <si>
@@ -528,9 +504,6 @@
 - Beschrijving | Een Catalogus voor Testdoeleinden</t>
   </si>
   <si>
-    <t>GCO-526</t>
-  </si>
-  <si>
     <t>Dataset T.ttl</t>
   </si>
   <si>
@@ -621,9 +594,6 @@
     <t>Testbestand "Validatie lege term.xml" wordt geupload</t>
   </si>
   <si>
-    <t>GCO-555</t>
-  </si>
-  <si>
     <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl
 Concepten/Regressietest/ttl/Validatie leeg label.ttl</t>
   </si>
@@ -656,6 +626,60 @@
   </si>
   <si>
     <t>Testbestand "Validatie leeg prefLabel.jsonld" wordt geupload</t>
+  </si>
+  <si>
+    <t>Weergavepagina Toeleidingsbegrippen</t>
+  </si>
+  <si>
+    <t>Datacontrole</t>
+  </si>
+  <si>
+    <t>O - GCO-450</t>
+  </si>
+  <si>
+    <t>O - GCO-382</t>
+  </si>
+  <si>
+    <t>O - GCO-391</t>
+  </si>
+  <si>
+    <t>O - GCO-4</t>
+  </si>
+  <si>
+    <t>O - GCO-466</t>
+  </si>
+  <si>
+    <t>O - GCO-294</t>
+  </si>
+  <si>
+    <t>O - GCO-470</t>
+  </si>
+  <si>
+    <t>O - GCO-540</t>
+  </si>
+  <si>
+    <t>O - GCO-526</t>
+  </si>
+  <si>
+    <t>O - GCO-555</t>
+  </si>
+  <si>
+    <t>GCO-53</t>
+  </si>
+  <si>
+    <t>query/toeleidingsbegrippen</t>
+  </si>
+  <si>
+    <t>Op de pagina staat o.a. een tabel met:
+- als headers 'Toeleidingsbegrip' en 'Concept'
+- één rij met in de eerste kolom 'monster' en in de tweede kolom een link naar /id/concept/GeneriekBeest met als label 'Generiek beest'</t>
+  </si>
+  <si>
+    <t>Op de volgende link geklikt wordt:
+- id/concept/GeneriekBeest</t>
+  </si>
+  <si>
+    <t>De weergavepagina voor GeneriekBeest wordt geopend in hetzelfde scherm.</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1200,10 @@
   <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1221,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1217,13 +1241,13 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1232,10 +1256,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -1248,28 +1272,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1278,31 +1302,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1311,31 +1335,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="J5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1344,28 +1368,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="135" x14ac:dyDescent="0.25">
@@ -1374,31 +1398,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="J7" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.25">
@@ -1407,31 +1431,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="J8" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1440,31 +1464,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="J9" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1473,28 +1497,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1503,31 +1527,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1536,28 +1560,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1566,28 +1590,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1596,28 +1620,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -1626,31 +1650,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1659,31 +1683,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="J16" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="273" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,31 +1716,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1725,31 +1749,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1758,31 +1782,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1791,31 +1815,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1824,31 +1848,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1857,31 +1881,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1890,31 +1914,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1923,31 +1947,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1956,31 +1980,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1989,31 +2013,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2022,31 +2046,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="J27" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2055,31 +2079,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2088,28 +2112,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2118,31 +2142,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="10" t="s">
+      <c r="J30" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2151,28 +2175,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2181,28 +2205,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2211,31 +2235,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="J33" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2244,28 +2268,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2274,31 +2298,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2307,31 +2331,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2340,28 +2364,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2370,31 +2394,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2403,28 +2427,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2433,28 +2457,28 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2463,31 +2487,31 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2496,28 +2520,28 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2526,31 +2550,31 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="J43" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2559,31 +2583,31 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2592,28 +2616,28 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2622,31 +2646,31 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2655,28 +2679,28 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2685,28 +2709,28 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2715,31 +2739,31 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2748,28 +2772,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2778,31 +2802,31 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2811,31 +2835,31 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2844,28 +2868,28 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2874,28 +2898,28 @@
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2904,28 +2928,28 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2934,31 +2958,31 @@
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -2967,31 +2991,31 @@
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3000,31 +3024,31 @@
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -3033,31 +3057,31 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -3066,31 +3090,31 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3099,31 +3123,31 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3132,28 +3156,28 @@
         <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3162,28 +3186,28 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3192,28 +3216,28 @@
         <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3222,31 +3246,31 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3255,28 +3279,28 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3285,28 +3309,28 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3315,31 +3339,31 @@
         <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3348,31 +3372,31 @@
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3381,28 +3405,28 @@
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3411,28 +3435,28 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3441,31 +3465,31 @@
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3474,43 +3498,97 @@
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I73" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>186</v>
-      </c>
       <c r="J73" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <f t="shared" si="1"/>
         <v>73</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="212">
   <si>
     <t>US</t>
   </si>
@@ -722,6 +722,18 @@
   </si>
   <si>
     <t>Op de pagina staat o.a. een tabel met als header Dier en onder de waarde domein is TestSchema terug te zien</t>
+  </si>
+  <si>
+    <t>GCO-135</t>
+  </si>
+  <si>
+    <t>Validatie toeleidingsbegrippen</t>
+  </si>
+  <si>
+    <t>Concepten/Regeressietest/ttl/Validatie toeleidingsbegrip.ttl</t>
+  </si>
+  <si>
+    <t>Container geeft als resultaat "Toeleidingsbegrippen mogen enkel concepten met een rdfs:label, skos:prefLabel of skos:closeMatch bevatten."</t>
   </si>
 </sst>
 </file>
@@ -1239,13 +1251,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1376"/>
+  <dimension ref="A1:J1375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
+      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,7 +3422,7 @@
     </row>
     <row r="69" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <f t="shared" ref="A69:A132" si="1">A68+1</f>
+        <f t="shared" ref="A69:A131" si="1">A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -3759,103 +3771,153 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
-        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4073,13 +4135,13 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
-        <f t="shared" ref="A133:A196" si="2">A132+1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
     </row>
@@ -4457,13 +4519,13 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
-        <f t="shared" ref="A197:A260" si="3">A196+1</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
     </row>
@@ -4841,13 +4903,13 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
-        <f t="shared" ref="A261:A324" si="4">A260+1</f>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
     </row>
@@ -5225,13 +5287,13 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
-        <f t="shared" ref="A325:A388" si="5">A324+1</f>
+        <f t="shared" si="5"/>
         <v>323</v>
       </c>
     </row>
@@ -5609,13 +5671,13 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A388:A451" si="6">A387+1</f>
         <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
-        <f t="shared" ref="A389:A452" si="6">A388+1</f>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
     </row>
@@ -5993,13 +6055,13 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A452:A515" si="7">A451+1</f>
         <v>450</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="8">
-        <f t="shared" ref="A453:A516" si="7">A452+1</f>
+        <f t="shared" si="7"/>
         <v>451</v>
       </c>
     </row>
@@ -6377,13 +6439,13 @@
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A516:A579" si="8">A515+1</f>
         <v>514</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="8">
-        <f t="shared" ref="A517:A580" si="8">A516+1</f>
+        <f t="shared" si="8"/>
         <v>515</v>
       </c>
     </row>
@@ -6761,13 +6823,13 @@
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A580:A643" si="9">A579+1</f>
         <v>578</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="8">
-        <f t="shared" ref="A581:A644" si="9">A580+1</f>
+        <f t="shared" si="9"/>
         <v>579</v>
       </c>
     </row>
@@ -7145,13 +7207,13 @@
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A644:A707" si="10">A643+1</f>
         <v>642</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="8">
-        <f t="shared" ref="A645:A708" si="10">A644+1</f>
+        <f t="shared" si="10"/>
         <v>643</v>
       </c>
     </row>
@@ -7529,13 +7591,13 @@
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A708:A771" si="11">A707+1</f>
         <v>706</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="8">
-        <f t="shared" ref="A709:A772" si="11">A708+1</f>
+        <f t="shared" si="11"/>
         <v>707</v>
       </c>
     </row>
@@ -7913,13 +7975,13 @@
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A772:A835" si="12">A771+1</f>
         <v>770</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="8">
-        <f t="shared" ref="A773:A836" si="12">A772+1</f>
+        <f t="shared" si="12"/>
         <v>771</v>
       </c>
     </row>
@@ -8297,13 +8359,13 @@
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A836:A899" si="13">A835+1</f>
         <v>834</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="8">
-        <f t="shared" ref="A837:A900" si="13">A836+1</f>
+        <f t="shared" si="13"/>
         <v>835</v>
       </c>
     </row>
@@ -8681,13 +8743,13 @@
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A900:A963" si="14">A899+1</f>
         <v>898</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="8">
-        <f t="shared" ref="A901:A964" si="14">A900+1</f>
+        <f t="shared" si="14"/>
         <v>899</v>
       </c>
     </row>
@@ -9065,13 +9127,13 @@
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A964:A1027" si="15">A963+1</f>
         <v>962</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="8">
-        <f t="shared" ref="A965:A1028" si="15">A964+1</f>
+        <f t="shared" si="15"/>
         <v>963</v>
       </c>
     </row>
@@ -9449,13 +9511,13 @@
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A1028:A1091" si="16">A1027+1</f>
         <v>1026</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" s="8">
-        <f t="shared" ref="A1029:A1092" si="16">A1028+1</f>
+        <f t="shared" si="16"/>
         <v>1027</v>
       </c>
     </row>
@@ -9833,13 +9895,13 @@
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="A1092:A1155" si="17">A1091+1</f>
         <v>1090</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="8">
-        <f t="shared" ref="A1093:A1156" si="17">A1092+1</f>
+        <f t="shared" si="17"/>
         <v>1091</v>
       </c>
     </row>
@@ -10217,13 +10279,13 @@
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1156" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="A1156:A1219" si="18">A1155+1</f>
         <v>1154</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" s="8">
-        <f t="shared" ref="A1157:A1220" si="18">A1156+1</f>
+        <f t="shared" si="18"/>
         <v>1155</v>
       </c>
     </row>
@@ -10601,13 +10663,13 @@
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="A1220:A1283" si="19">A1219+1</f>
         <v>1218</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221" s="8">
-        <f t="shared" ref="A1221:A1284" si="19">A1220+1</f>
+        <f t="shared" si="19"/>
         <v>1219</v>
       </c>
     </row>
@@ -10985,13 +11047,13 @@
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1284" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="A1284:A1347" si="20">A1283+1</f>
         <v>1282</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1285" s="8">
-        <f t="shared" ref="A1285:A1348" si="20">A1284+1</f>
+        <f t="shared" si="20"/>
         <v>1283</v>
       </c>
     </row>
@@ -11369,13 +11431,13 @@
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1348" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="A1348:A1375" si="21">A1347+1</f>
         <v>1346</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349" s="8">
-        <f t="shared" ref="A1349:A1376" si="21">A1348+1</f>
+        <f t="shared" si="21"/>
         <v>1347</v>
       </c>
     </row>
@@ -11533,12 +11595,6 @@
       <c r="A1375" s="8">
         <f t="shared" si="21"/>
         <v>1373</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1376" s="8">
-        <f t="shared" si="21"/>
-        <v>1374</v>
       </c>
     </row>
   </sheetData>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="232">
   <si>
     <t>US</t>
   </si>
@@ -667,9 +667,6 @@
     <t>GCO-53</t>
   </si>
   <si>
-    <t>query/toeleidingsbegrippen</t>
-  </si>
-  <si>
     <t>Op de pagina staat o.a. een tabel met:
 - als headers 'Toeleidingsbegrip' en 'Concept'
 - één rij met in de eerste kolom 'monster' en in de tweede kolom een link naar /id/concept/GeneriekBeest met als label 'Generiek beest'</t>
@@ -724,22 +721,89 @@
     <t>Op de pagina staat o.a. een tabel met als header Dier en onder de waarde domein is TestSchema terug te zien</t>
   </si>
   <si>
-    <t>GCO-135</t>
-  </si>
-  <si>
     <t>Validatie toeleidingsbegrippen</t>
   </si>
   <si>
-    <t>Concepten/Regeressietest/ttl/Validatie toeleidingsbegrip.ttl</t>
-  </si>
-  <si>
-    <t>Container geeft als resultaat "Toeleidingsbegrippen mogen enkel concepten met een rdfs:label, skos:prefLabel of skos:closeMatch bevatten."</t>
+    <t>Toevoegen toeleidingsbegrip</t>
+  </si>
+  <si>
+    <t>GCO-251</t>
+  </si>
+  <si>
+    <t>container/addToeleiding</t>
+  </si>
+  <si>
+    <t>Testbestand is geupload en sync is uitgevoerd</t>
+  </si>
+  <si>
+    <t>Validatie verplichte predicates</t>
+  </si>
+  <si>
+    <t>Container geeft als resultaat "Elk toeleidingsbegrip moet een skos:closeMatch, rdfs:label en skos:prefLabel bevatten."</t>
+  </si>
+  <si>
+    <t>Validatie overige predicates</t>
+  </si>
+  <si>
+    <t>Container geeft als resultaat "Een toeleidingsbegrip mag geen andere eigenschappen bevatten dan een skos:closeMatch, een rdfs:label en een skos:prefLabel."</t>
+  </si>
+  <si>
+    <t>Verwijderen toeleidingsbegrip</t>
+  </si>
+  <si>
+    <t>Productioncontrole</t>
+  </si>
+  <si>
+    <t>update/clearToeleiding</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Datacontrole attributen.ttl
+Concepten/Regressietest/ttl/Datacontrole toeleidingsbegrip.ttl</t>
+  </si>
+  <si>
+    <t>Testbestanden zijn geupload en sync is uitgevoerd</t>
+  </si>
+  <si>
+    <t>In het scherm wordt 'monster' geselecteerd en vervolgens op 'Ga verder' geklikt</t>
+  </si>
+  <si>
+    <t>Op de pagina verschijnt een resultaattabel met een header (kolommen 'Step', 'Description' en 'Result') en één rij ('1', 'Verwijder toeleidingsbegrip', '&lt;lange tekst die niet gecontroleerd hoeft te worden&gt;')</t>
+  </si>
+  <si>
+    <t>query/toeleidingsbegrippen?term=</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie verplichte predicates toeleidingsbegrip.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie overige predicates toeleidingsbegrip.ttl</t>
+  </si>
+  <si>
+    <t>* Testbestanden zijn geupload en sync is uitgevoerd
+* Toeleidingsbegrip is verwijderd</t>
+  </si>
+  <si>
+    <t>Op de pagina staat o.a. een tabel met:
+- als headers 'Toeleidingsbegrip' en 'Concept'
+- In de tabel de tekst 'Niets gevonden'</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie toeleidingsbegrip.ttl</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie toeleidingsbegrip.jsonld</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie toeleidingsbegrip.xls</t>
+  </si>
+  <si>
+    <t>Container geeft als melding "De upload mag geen wijzigingen aanbrengen aan de collectie van toeleidingsbegrippen."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,7 +1013,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -965,9 +1029,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1005,7 +1069,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1040,6 +1104,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1075,9 +1156,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1250,14 +1348,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomRight" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1881,13 +1979,13 @@
         <v>84</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>85</v>
@@ -2052,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>85</v>
@@ -2151,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>20</v>
@@ -3594,10 +3692,10 @@
         <v>189</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>17</v>
@@ -3609,10 +3707,10 @@
         <v>85</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3627,10 +3725,10 @@
         <v>189</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>17</v>
@@ -3639,10 +3737,10 @@
         <v>37</v>
       </c>
       <c r="I75" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J75" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3651,19 +3749,19 @@
         <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E76" s="7" t="s">
+      <c r="F76" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>12</v>
@@ -3684,19 +3782,19 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>12</v>
@@ -3714,19 +3812,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="D78" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="F78" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>12</v>
@@ -3735,10 +3833,10 @@
         <v>37</v>
       </c>
       <c r="I78" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="J78" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3747,19 +3845,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>178</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>37</v>
@@ -3768,7 +3866,7 @@
         <v>85</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3777,16 +3875,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="E80" s="7" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>63</v>
@@ -3801,102 +3899,378 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="E81" s="7" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="I81" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <f t="shared" si="1"/>
         <v>90</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -11598,7 +11972,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2"/>
+  <autoFilter ref="A2:J2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:D1"/>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="235">
   <si>
     <t>US</t>
   </si>
@@ -798,6 +798,15 @@
   </si>
   <si>
     <t>Container geeft als melding "De upload mag geen wijzigingen aanbrengen aan de collectie van toeleidingsbegrippen."</t>
+  </si>
+  <si>
+    <t>Validatie type</t>
+  </si>
+  <si>
+    <t>Concepten/Regressietest/ttl/Validatie type toeleidingsbegrip.ttl</t>
+  </si>
+  <si>
+    <t>Container geeft als resultaat "Een toeleidingsbegrip mag enkel skos:Concept als type hebben."</t>
   </si>
 </sst>
 </file>
@@ -1352,10 +1361,10 @@
   <dimension ref="A1:J1375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J92" sqref="J92"/>
+      <selection pane="bottomRight" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,37 +3967,34 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>220</v>
-      </c>
       <c r="I83" s="10" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -4000,13 +4006,13 @@
         <v>216</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>219</v>
@@ -4015,43 +4021,46 @@
         <v>12</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H85" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="I85" s="10" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -4060,7 +4069,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>207</v>
@@ -4069,7 +4078,7 @@
         <v>209</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>228</v>
@@ -4090,7 +4099,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>207</v>
@@ -4099,16 +4108,13 @@
         <v>209</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>228</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>9</v>
@@ -4123,7 +4129,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>207</v>
@@ -4132,13 +4138,16 @@
         <v>209</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>9</v>
@@ -4153,7 +4162,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>207</v>
@@ -4162,16 +4171,13 @@
         <v>209</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>229</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>9</v>
@@ -4186,7 +4192,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>207</v>
@@ -4195,13 +4201,16 @@
         <v>209</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>9</v>
@@ -4216,7 +4225,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>207</v>
@@ -4225,16 +4234,13 @@
         <v>209</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>230</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>9</v>
@@ -4249,7 +4255,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>207</v>
@@ -4258,7 +4264,7 @@
         <v>209</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>230</v>
@@ -4266,6 +4272,9 @@
       <c r="G92" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H92" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="I92" s="10" t="s">
         <v>9</v>
       </c>
@@ -4273,10 +4282,34 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <f t="shared" si="1"/>
         <v>91</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="251">
   <si>
     <t>US</t>
   </si>
@@ -807,6 +807,63 @@
   </si>
   <si>
     <t>Container geeft als resultaat "Een toeleidingsbegrip mag enkel skos:Concept als type hebben."</t>
+  </si>
+  <si>
+    <t>Upload informatiemodel</t>
+  </si>
+  <si>
+    <t>GCO-282</t>
+  </si>
+  <si>
+    <t>container/ttlmodelupload</t>
+  </si>
+  <si>
+    <t>Waardelijsten/Regressietest/Datacontrole informatiemodel.ttl</t>
+  </si>
+  <si>
+    <t>update/createwaardelijst</t>
+  </si>
+  <si>
+    <t>De pagina bevat o.a. een invoerveld met als naam "Selecteer het informatiemodel horende bij de waardelijst" en daarachter de keuzemogelijkheid "Test-Informatiemodel"</t>
+  </si>
+  <si>
+    <t>Aanmaken waardelijst</t>
+  </si>
+  <si>
+    <t>Aanmaken classificerende waardelijst</t>
+  </si>
+  <si>
+    <t>In het scherm wordt het volgende geselecteerd / ingevuld:
+- TestClassificerend
+- Test-Informatiemodel
+- Classificerend</t>
+  </si>
+  <si>
+    <t>Een resultaatpagina verschijnt met daarin drie stappen. Achter 'categoriserend' en 'refererend' staat (o.a.) 'nothing to do' en achter 'classificerend' staat 'done'.</t>
+  </si>
+  <si>
+    <t>Aanmaken categoriserende waardelijst</t>
+  </si>
+  <si>
+    <t>Aanmaken refererende waardelijst</t>
+  </si>
+  <si>
+    <t>In het scherm wordt het volgende geselecteerd / ingevuld:
+- TestCategoriserend
+- Test-Informatiemodel
+- Categoriserend</t>
+  </si>
+  <si>
+    <t>In het scherm wordt het volgende geselecteerd / ingevuld:
+- TestRefererend
+- Test-Informatiemodel
+- Refererend</t>
+  </si>
+  <si>
+    <t>Een resultaatpagina verschijnt met daarin drie stappen. Achter 'classificerend' en 'refererend' staat (o.a.) 'nothing to do' en achter 'categoriserend' staat 'done'.</t>
+  </si>
+  <si>
+    <t>Een resultaatpagina verschijnt met daarin drie stappen. Achter 'categoriserend' en 'classificerend' staat (o.a.) 'nothing to do' en achter 'refererend' staat (o.a.) 'done'.</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1418,10 @@
   <dimension ref="A1:J1375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J84" sqref="J84"/>
+      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4312,115 +4369,247 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <f t="shared" si="1"/>
         <v>110</v>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="252">
   <si>
     <t>US</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t>Een resultaatpagina verschijnt met daarin drie stappen. Achter 'categoriserend' en 'classificerend' staat (o.a.) 'nothing to do' en achter 'refererend' staat (o.a.) 'done'.</t>
+  </si>
+  <si>
+    <t>Testbestand wordt geupload en als naam wordt 'Test' ingevuld</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1421,10 @@
   <dimension ref="A1:J1375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="J94" s="10" t="s">
         <v>15</v>

--- a/catalogusdata/Logische testen Catalogus.xlsx
+++ b/catalogusdata/Logische testen Catalogus.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="235">
   <si>
     <t>US</t>
   </si>
@@ -807,66 +807,6 @@
   </si>
   <si>
     <t>Container geeft als resultaat "Een toeleidingsbegrip mag enkel skos:Concept als type hebben."</t>
-  </si>
-  <si>
-    <t>Upload informatiemodel</t>
-  </si>
-  <si>
-    <t>GCO-282</t>
-  </si>
-  <si>
-    <t>container/ttlmodelupload</t>
-  </si>
-  <si>
-    <t>Waardelijsten/Regressietest/Datacontrole informatiemodel.ttl</t>
-  </si>
-  <si>
-    <t>update/createwaardelijst</t>
-  </si>
-  <si>
-    <t>De pagina bevat o.a. een invoerveld met als naam "Selecteer het informatiemodel horende bij de waardelijst" en daarachter de keuzemogelijkheid "Test-Informatiemodel"</t>
-  </si>
-  <si>
-    <t>Aanmaken waardelijst</t>
-  </si>
-  <si>
-    <t>Aanmaken classificerende waardelijst</t>
-  </si>
-  <si>
-    <t>In het scherm wordt het volgende geselecteerd / ingevuld:
-- TestClassificerend
-- Test-Informatiemodel
-- Classificerend</t>
-  </si>
-  <si>
-    <t>Een resultaatpagina verschijnt met daarin drie stappen. Achter 'categoriserend' en 'refererend' staat (o.a.) 'nothing to do' en achter 'classificerend' staat 'done'.</t>
-  </si>
-  <si>
-    <t>Aanmaken categoriserende waardelijst</t>
-  </si>
-  <si>
-    <t>Aanmaken refererende waardelijst</t>
-  </si>
-  <si>
-    <t>In het scherm wordt het volgende geselecteerd / ingevuld:
-- TestCategoriserend
-- Test-Informatiemodel
-- Categoriserend</t>
-  </si>
-  <si>
-    <t>In het scherm wordt het volgende geselecteerd / ingevuld:
-- TestRefererend
-- Test-Informatiemodel
-- Refererend</t>
-  </si>
-  <si>
-    <t>Een resultaatpagina verschijnt met daarin drie stappen. Achter 'classificerend' en 'refererend' staat (o.a.) 'nothing to do' en achter 'categoriserend' staat 'done'.</t>
-  </si>
-  <si>
-    <t>Een resultaatpagina verschijnt met daarin drie stappen. Achter 'categoriserend' en 'classificerend' staat (o.a.) 'nothing to do' en achter 'refererend' staat (o.a.) 'done'.</t>
-  </si>
-  <si>
-    <t>Testbestand wordt geupload en als naam wordt 'Test' ingevuld</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1361,10 @@
   <dimension ref="A1:J1375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4372,247 +4312,115 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J95" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I96" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="J96" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <f t="shared" si="1"/>
         <v>110</v>
